--- a/obsidian-notes/spreadsheets/punjabi-republic.xlsx
+++ b/obsidian-notes/spreadsheets/punjabi-republic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4179229009c49077/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{91F081C7-E09A-456E-93B2-53F8A2FCDB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0651547-80FD-414D-BE89-5413AE3881A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBCD8E2-F8F1-49BA-93D1-8C4204B7B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{2A2A8F50-B36A-4748-86B9-6BCF6AA3C6D6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="90">
   <si>
     <t>Total</t>
   </si>
@@ -292,6 +292,21 @@
   </si>
   <si>
     <t>Metropolitan population</t>
+  </si>
+  <si>
+    <t>Babi</t>
+  </si>
+  <si>
+    <t>urb babi</t>
+  </si>
+  <si>
+    <t>suburb babi</t>
+  </si>
+  <si>
+    <t>tot urb babi</t>
+  </si>
+  <si>
+    <t>remainder babi</t>
   </si>
 </sst>
 </file>
@@ -393,14 +408,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +449,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6FBEDB-1E91-442D-B0F9-25114CF93708}">
-  <dimension ref="A1:BG24"/>
+  <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1"/>
+    <sheetView topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -958,50 +969,50 @@
       </c>
       <c r="B6" s="4">
         <f>$B$3*C6</f>
-        <v>12785700</v>
+        <v>11804700</v>
       </c>
       <c r="C6" s="3">
-        <v>0.39100000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F11" si="0">F$3*G6</f>
-        <v>4439000</v>
+        <f t="shared" ref="F6:F12" si="0">F$3*G6</f>
+        <v>4186000</v>
       </c>
       <c r="G6" s="3">
-        <v>0.38600000000000001</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ref="J6:J11" si="1">J$3*K6</f>
-        <v>2649600</v>
+        <f t="shared" ref="J6:J12" si="1">J$3*K6</f>
+        <v>2455200</v>
       </c>
       <c r="K6" s="3">
-        <v>0.36799999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" ref="N6:N10" si="2">N$3*O6</f>
-        <v>1548932</v>
+        <f t="shared" ref="N6:N11" si="2">N$3*O6</f>
+        <v>1488584</v>
       </c>
       <c r="O6" s="3">
-        <v>0.308</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="Q6" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="4">
         <f>R$3*S6</f>
-        <v>3171936</v>
+        <v>3066486</v>
       </c>
       <c r="S6" s="3">
-        <v>0.752</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="U6" t="s">
         <v>1</v>
@@ -1018,40 +1029,40 @@
       </c>
       <c r="Z6" s="4">
         <f>Z$3*AA6</f>
-        <v>2553201</v>
+        <v>2483535.6</v>
       </c>
       <c r="AA6" s="3">
-        <v>0.71099999999999997</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="AC6" t="s">
         <v>1</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$3*AE6</f>
-        <v>1626100</v>
+        <v>1571360</v>
       </c>
       <c r="AE6" s="3">
-        <v>0.505</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="AG6" t="s">
         <v>1</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$3*AI6</f>
-        <v>847486</v>
+        <v>836690</v>
       </c>
       <c r="AI6" s="3">
-        <v>0.314</v>
+        <v>0.31</v>
       </c>
       <c r="AK6" t="s">
         <v>1</v>
       </c>
       <c r="AL6" s="4">
         <f>AL$3*AM6</f>
-        <v>1565941</v>
+        <v>1540513</v>
       </c>
       <c r="AM6" s="3">
-        <v>0.73899999999999999</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" t="s">
@@ -1069,36 +1080,36 @@
       </c>
       <c r="AT6" s="4">
         <f>AT$3*AU6</f>
-        <v>399568</v>
+        <v>379680</v>
       </c>
       <c r="AU6" s="3">
-        <v>0.221</v>
+        <v>0.21</v>
       </c>
       <c r="AW6" t="s">
         <v>1</v>
       </c>
       <c r="AX6" s="4">
-        <f t="shared" ref="AX6:AX11" si="3">AX$3*AY6</f>
-        <v>528162</v>
-      </c>
-      <c r="AY6" s="2">
-        <v>0.33900000000000002</v>
+        <f t="shared" ref="AX6:AX12" si="3">AX$3*AY6</f>
+        <v>526604</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>0.33800000000000002</v>
       </c>
       <c r="BA6" t="s">
         <v>1</v>
       </c>
       <c r="BB6" s="4">
-        <f t="shared" ref="BB6:BB11" si="4">BB$3*BC6</f>
-        <v>1107151</v>
+        <f t="shared" ref="BB6:BB12" si="4">BB$3*BC6</f>
+        <v>1096743</v>
       </c>
       <c r="BC6" s="3">
-        <v>0.85099999999999998</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="BE6" t="s">
         <v>1</v>
       </c>
       <c r="BF6" s="4">
-        <f t="shared" ref="BF6:BF11" si="5">BF$3*BG6</f>
+        <f t="shared" ref="BF6:BF12" si="5">BF$3*BG6</f>
         <v>90869</v>
       </c>
       <c r="BG6" s="3">
@@ -1110,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ref="B7:B19" si="6">$B$3*C7</f>
+        <f t="shared" ref="B7:B20" si="6">$B$3*C7</f>
         <v>7978800</v>
       </c>
       <c r="C7" s="3">
@@ -1121,20 +1132,20 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>4059500</v>
+        <v>4047999.9999999995</v>
       </c>
       <c r="G7" s="3">
-        <v>0.35299999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>2383200</v>
+        <v>2376000</v>
       </c>
       <c r="K7" s="3">
-        <v>0.33100000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="M7" t="s">
         <v>2</v>
@@ -1150,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" ref="R7:R10" si="7">R$3*S7</f>
+        <f t="shared" ref="R7:R11" si="7">R$3*S7</f>
         <v>603174</v>
       </c>
       <c r="S7" s="3">
@@ -1160,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" ref="V7:V19" si="8">V$3*W7</f>
+        <f t="shared" ref="V7:V20" si="8">V$3*W7</f>
         <v>1976897</v>
       </c>
       <c r="W7" s="3">
@@ -1170,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="Z7" s="4">
-        <f t="shared" ref="Z7:Z19" si="9">Z$3*AA7</f>
+        <f t="shared" ref="Z7:Z20" si="9">Z$3*AA7</f>
         <v>779247</v>
       </c>
       <c r="AA7" s="3">
@@ -1180,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ref="AD7:AD19" si="10">AD$3*AE7</f>
+        <f t="shared" ref="AD7:AD20" si="10">AD$3*AE7</f>
         <v>1130220</v>
       </c>
       <c r="AE7" s="3">
@@ -1190,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="AH7" s="4">
-        <f t="shared" ref="AH7:AH19" si="11">AH$3*AI7</f>
+        <f t="shared" ref="AH7:AH20" si="11">AH$3*AI7</f>
         <v>1225346</v>
       </c>
       <c r="AI7" s="3">
@@ -1200,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="4">
-        <f t="shared" ref="AL7:AL19" si="12">AL$3*AM7</f>
+        <f t="shared" ref="AL7:AL20" si="12">AL$3*AM7</f>
         <v>319969</v>
       </c>
       <c r="AM7" s="3">
@@ -1211,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="AP7" s="4">
-        <f t="shared" ref="AP7:AP19" si="13">AP$3*AQ7</f>
+        <f t="shared" ref="AP7:AP20" si="13">AP$3*AQ7</f>
         <v>795168</v>
       </c>
       <c r="AQ7" s="3">
@@ -1221,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="AT7" s="4">
-        <f t="shared" ref="AT7:AT19" si="14">AT$3*AU7</f>
+        <f t="shared" ref="AT7:AT20" si="14">AT$3*AU7</f>
         <v>630992</v>
       </c>
       <c r="AU7" s="3">
@@ -1234,7 +1245,7 @@
         <f t="shared" si="3"/>
         <v>797696</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AY7" s="3">
         <v>0.51200000000000001</v>
       </c>
       <c r="BA7" t="s">
@@ -1387,7 +1398,7 @@
         <f t="shared" si="3"/>
         <v>174496</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AY8" s="3">
         <v>0.112</v>
       </c>
       <c r="BA8" t="s">
@@ -1413,1575 +1424,1727 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4">
+        <f>$B$3*C9</f>
+        <v>817500</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="4">
+        <f>F$3*G9</f>
+        <v>264500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="4">
+        <f>J$3*K9</f>
+        <v>158400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="4">
+        <f>N$3*O9</f>
+        <v>62862.5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="4">
+        <f>R$3*S9</f>
+        <v>139194</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" s="4">
+        <f>V$3*W9</f>
+        <v>370.90000000000003</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z9" s="4">
+        <f>Z$3*AA9</f>
+        <v>40578.299999999996</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD9" s="4">
+        <f>AD$3*AE9</f>
+        <v>55706</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH9" s="4">
+        <f>AH$3*AI9</f>
+        <v>12955.199999999999</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL9" s="4">
+        <f>AL$3*AM9</f>
+        <v>26487.5</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP9" s="4">
+        <f>AP$3*AQ9</f>
+        <v>6024</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT9" s="4">
+        <f>AT$3*AU9</f>
+        <v>19888</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX9" s="4">
+        <f>AX$3*AY9</f>
+        <v>2804.4</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB9" s="4">
+        <f>BB$3*BC9</f>
+        <v>10928.4</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF9" s="4">
+        <f>BF$3*BG9</f>
+        <v>10.210000000000001</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <f t="shared" si="6"/>
         <v>555900</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>46000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>2E-3</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="4">
         <f t="shared" si="2"/>
         <v>10058</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O10" s="3">
         <v>2E-3</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q10" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="7"/>
         <v>4218</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U10" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V10" s="4">
         <f t="shared" si="8"/>
         <v>7418</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W10" s="3">
         <v>2E-3</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y10" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z10" s="4">
         <f t="shared" si="9"/>
         <v>3591</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC10" t="s">
         <v>4</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AD10" s="4">
         <f t="shared" si="10"/>
         <v>1610</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE10" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG10" t="s">
         <v>4</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH10" s="4">
         <f t="shared" si="11"/>
         <v>2968.9</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI10" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK10" t="s">
         <v>4</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL10" s="4">
         <f t="shared" si="12"/>
         <v>1059.5</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM10" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AN9" s="3"/>
-      <c r="AO9" t="s">
+      <c r="AN10" s="3"/>
+      <c r="AO10" t="s">
         <v>4</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AP10" s="4">
         <f t="shared" si="13"/>
         <v>2208.8000000000002</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ10" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS10" t="s">
         <v>4</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AT10" s="4">
         <f t="shared" si="14"/>
         <v>379.68</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AU10" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AW10" t="s">
         <v>4</v>
       </c>
-      <c r="AX9" s="4">
+      <c r="AX10" s="4">
         <f t="shared" si="3"/>
         <v>1869.6</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="AY10" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BA10" t="s">
         <v>4</v>
       </c>
-      <c r="BB9" s="4">
+      <c r="BB10" s="4">
         <f t="shared" si="4"/>
         <v>1301</v>
       </c>
-      <c r="BC9" s="3">
+      <c r="BC10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BE10" t="s">
         <v>4</v>
       </c>
-      <c r="BF9" s="4">
+      <c r="BF10" s="4">
         <f t="shared" si="5"/>
         <v>51.050000000000004</v>
       </c>
-      <c r="BG9" s="3">
+      <c r="BG10" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <f t="shared" si="6"/>
         <v>98100</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>5750</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>4320</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="4">
         <f t="shared" si="2"/>
         <v>2514.5</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O11" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q11" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="7"/>
         <v>2109</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S11" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U11" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V11" s="4">
         <f t="shared" si="8"/>
         <v>1854.5</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W11" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y11" t="s">
         <v>5</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z11" s="4">
         <f t="shared" si="9"/>
         <v>7182</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA11" s="3">
         <v>2E-3</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC11" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD11" s="4">
         <f t="shared" si="10"/>
         <v>322</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE11" s="3">
         <v>1E-4</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG11" t="s">
         <v>5</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH11" s="4">
         <f t="shared" si="11"/>
         <v>269.90000000000003</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI11" s="3">
         <v>1E-4</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AK11" t="s">
         <v>5</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AL11" s="4">
         <f t="shared" si="12"/>
         <v>847.6</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM11" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="AN10" s="3"/>
-      <c r="AO10" t="s">
+      <c r="AN11" s="3"/>
+      <c r="AO11" t="s">
         <v>5</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="AP11" s="4">
         <f t="shared" si="13"/>
         <v>20.080000000000002</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ11" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS11" t="s">
         <v>5</v>
       </c>
-      <c r="AT10" s="4">
+      <c r="AT11" s="4">
         <f t="shared" si="14"/>
         <v>90.4</v>
       </c>
-      <c r="AU10" s="3">
+      <c r="AU11" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AW11" t="s">
         <v>5</v>
       </c>
-      <c r="AX10" s="4">
+      <c r="AX11" s="4">
         <f t="shared" si="3"/>
         <v>1246.4000000000001</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="AY11" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BA11" t="s">
         <v>5</v>
       </c>
-      <c r="BB10" s="4">
+      <c r="BB11" s="4">
         <f t="shared" si="4"/>
         <v>130.1</v>
       </c>
-      <c r="BC10" s="3">
+      <c r="BC11" s="3">
         <v>1E-4</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BE11" t="s">
         <v>5</v>
       </c>
-      <c r="BF10" s="4">
+      <c r="BF11" s="4">
         <f t="shared" si="5"/>
         <v>12252</v>
       </c>
-      <c r="BG10" s="3">
+      <c r="BG11" s="3">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <f t="shared" si="6"/>
-        <v>2288999.9999999986</v>
-      </c>
-      <c r="C11" s="3">
-        <f>1-SUM(C6:C10)</f>
-        <v>6.9999999999999951E-2</v>
-      </c>
-      <c r="E11" t="s">
+        <v>2452499.9999999986</v>
+      </c>
+      <c r="C12" s="3">
+        <f>1-SUM(C6:C11)</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>741750</v>
-      </c>
-      <c r="G11" s="5">
-        <f>1-SUM(G6:G10)</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="I11" t="s">
+        <v>741750.00000000128</v>
+      </c>
+      <c r="G12" s="5">
+        <f>1-SUM(G6:G11)</f>
+        <v>6.4500000000000113E-2</v>
+      </c>
+      <c r="I12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>305279.99999999913</v>
-      </c>
-      <c r="K11" s="5">
-        <f>1-SUM(K6:K10)</f>
-        <v>4.2399999999999882E-2</v>
-      </c>
-      <c r="M11" t="s">
+        <v>348479.99999999919</v>
+      </c>
+      <c r="K12" s="5">
+        <f>1-SUM(K6:K11)</f>
+        <v>4.8399999999999888E-2</v>
+      </c>
+      <c r="M12" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="4">
-        <f>N$3*O11</f>
-        <v>143326.50000000041</v>
-      </c>
-      <c r="O11" s="5">
-        <f>1-SUM(O6:O10)</f>
-        <v>2.8500000000000081E-2</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="N12" s="4">
+        <f>N$3*O12</f>
+        <v>140812.00000000067</v>
+      </c>
+      <c r="O12" s="5">
+        <f>1-SUM(O6:O11)</f>
+        <v>2.8000000000000136E-2</v>
+      </c>
+      <c r="Q12" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="4">
-        <f>R$3*S11</f>
-        <v>94905.00000000032</v>
-      </c>
-      <c r="S11" s="5">
-        <f>1-SUM(S6:S10)</f>
-        <v>2.2500000000000075E-2</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="R12" s="4">
+        <f>R$3*S12</f>
+        <v>61161.000000000291</v>
+      </c>
+      <c r="S12" s="5">
+        <f>1-SUM(S6:S11)</f>
+        <v>1.4500000000000068E-2</v>
+      </c>
+      <c r="U12" t="s">
         <v>6</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V12" s="4">
         <f t="shared" si="8"/>
-        <v>246648.5</v>
-      </c>
-      <c r="W11" s="5">
-        <f>1-SUM(W6:W10)</f>
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="Y11" t="s">
+        <v>246277.60000000006</v>
+      </c>
+      <c r="W12" s="5">
+        <f>1-SUM(W6:W11)</f>
+        <v>6.6400000000000015E-2</v>
+      </c>
+      <c r="Y12" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z12" s="4">
         <f t="shared" si="9"/>
-        <v>43092.000000000036</v>
-      </c>
-      <c r="AA11" s="3">
-        <f>1-SUM(AA6:AA10)</f>
-        <v>1.2000000000000011E-2</v>
-      </c>
-      <c r="AC11" t="s">
+        <v>72179.10000000002</v>
+      </c>
+      <c r="AA12" s="3">
+        <f>1-SUM(AA6:AA11)</f>
+        <v>2.0100000000000007E-2</v>
+      </c>
+      <c r="AC12" t="s">
         <v>6</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD12" s="4">
         <f t="shared" si="10"/>
-        <v>107548.00000000031</v>
-      </c>
-      <c r="AE11" s="3">
-        <f>1-SUM(AE6:AE10)</f>
-        <v>3.3400000000000096E-2</v>
-      </c>
-      <c r="AG11" t="s">
+        <v>106582.00000000042</v>
+      </c>
+      <c r="AE12" s="3">
+        <f>1-SUM(AE6:AE11)</f>
+        <v>3.3100000000000129E-2</v>
+      </c>
+      <c r="AG12" t="s">
         <v>6</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH12" s="4">
         <f t="shared" si="11"/>
-        <v>107420.19999999985</v>
-      </c>
-      <c r="AI11" s="3">
-        <f>1-SUM(AI6:AI10)</f>
-        <v>3.9799999999999947E-2</v>
-      </c>
-      <c r="AK11" t="s">
+        <v>105260.9999999998</v>
+      </c>
+      <c r="AI12" s="3">
+        <f>1-SUM(AI6:AI11)</f>
+        <v>3.8999999999999924E-2</v>
+      </c>
+      <c r="AK12" t="s">
         <v>6</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AL12" s="4">
         <f t="shared" si="12"/>
-        <v>84971.900000000052</v>
-      </c>
-      <c r="AM11" s="3">
-        <f>1-SUM(AM6:AM10)</f>
-        <v>4.0100000000000025E-2</v>
-      </c>
-      <c r="AN11" s="3"/>
-      <c r="AO11" t="s">
+        <v>83912.400000000169</v>
+      </c>
+      <c r="AM12" s="3">
+        <f>1-SUM(AM6:AM11)</f>
+        <v>3.960000000000008E-2</v>
+      </c>
+      <c r="AN12" s="3"/>
+      <c r="AO12" t="s">
         <v>6</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="AP12" s="4">
         <f t="shared" si="13"/>
-        <v>43955.120000000155</v>
-      </c>
-      <c r="AQ11" s="3">
-        <f>1-SUM(AQ6:AQ10)</f>
-        <v>2.1890000000000076E-2</v>
-      </c>
-      <c r="AS11" t="s">
+        <v>37931.120000000148</v>
+      </c>
+      <c r="AQ12" s="3">
+        <f>1-SUM(AQ6:AQ11)</f>
+        <v>1.8890000000000073E-2</v>
+      </c>
+      <c r="AS12" t="s">
         <v>6</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="AT12" s="4">
         <f t="shared" si="14"/>
         <v>51961.919999999976</v>
       </c>
-      <c r="AU11" s="5">
-        <f>1-SUM(AU6:AU10)</f>
+      <c r="AU12" s="5">
+        <f>1-SUM(AU6:AU11)</f>
         <v>2.8739999999999988E-2</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AW12" t="s">
         <v>6</v>
       </c>
-      <c r="AX11" s="4">
+      <c r="AX12" s="4">
         <f t="shared" si="3"/>
-        <v>54530.000000000051</v>
-      </c>
-      <c r="AY11" s="5">
-        <f>1-SUM(AY6:AY10)</f>
-        <v>3.5000000000000031E-2</v>
-      </c>
-      <c r="BA11" t="s">
+        <v>53283.599999999838</v>
+      </c>
+      <c r="AY12" s="5">
+        <f>1-SUM(AY6:AY11)</f>
+        <v>3.4199999999999897E-2</v>
+      </c>
+      <c r="BA12" t="s">
         <v>6</v>
       </c>
-      <c r="BB11" s="4">
+      <c r="BB12" s="4">
         <f t="shared" si="4"/>
-        <v>18083.900000000031</v>
-      </c>
-      <c r="BC11" s="5">
-        <f>1-SUM(BC6:BC10)</f>
-        <v>1.3900000000000023E-2</v>
-      </c>
-      <c r="BE11" t="s">
+        <v>17563.500000000087</v>
+      </c>
+      <c r="BC12" s="5">
+        <f>1-SUM(BC6:BC11)</f>
+        <v>1.3500000000000068E-2</v>
+      </c>
+      <c r="BE12" t="s">
         <v>6</v>
       </c>
-      <c r="BF11" s="4">
+      <c r="BF12" s="4">
         <f t="shared" si="5"/>
-        <v>19858.449999999968</v>
-      </c>
-      <c r="BG11" s="5">
-        <f>1-SUM(BG6:BG10)</f>
-        <v>1.9449999999999967E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BF12" s="4"/>
-    </row>
-    <row r="13" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="6" t="s">
+        <v>19848.240000000013</v>
+      </c>
+      <c r="BG12" s="5">
+        <f>1-SUM(BG6:BG11)</f>
+        <v>1.9440000000000013E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BF13" s="4"/>
+    </row>
+    <row r="14" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="E13" s="6" t="s">
+      <c r="B14" s="4"/>
+      <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="M13" s="6" t="s">
+      <c r="J14" s="4"/>
+      <c r="M14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="U13" s="6" t="s">
+      <c r="R14" s="4"/>
+      <c r="U14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V13" s="4"/>
-      <c r="Y13" s="6" t="s">
+      <c r="V14" s="4"/>
+      <c r="Y14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AC13" s="6" t="s">
+      <c r="Z14" s="4"/>
+      <c r="AC14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AD13" s="4"/>
-      <c r="AG13" s="6" t="s">
+      <c r="AD14" s="4"/>
+      <c r="AG14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AH13" s="4"/>
-      <c r="AK13" s="6" t="s">
+      <c r="AH14" s="4"/>
+      <c r="AK14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AL13" s="4"/>
-      <c r="AO13" s="6" t="s">
+      <c r="AL14" s="4"/>
+      <c r="AO14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AP13" s="4"/>
-      <c r="AS13" s="6" t="s">
+      <c r="AP14" s="4"/>
+      <c r="AS14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AT13" s="4"/>
-      <c r="AW13" s="6" t="s">
+      <c r="AT14" s="4"/>
+      <c r="AW14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AX13" s="4"/>
-      <c r="BA13" s="6" t="s">
+      <c r="AX14" s="4"/>
+      <c r="BA14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BB13" s="4"/>
-      <c r="BE13" s="6" t="s">
+      <c r="BB14" s="4"/>
+      <c r="BE14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BF13" s="4"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="BF14" s="4"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="4">
         <f t="shared" si="6"/>
         <v>26225400</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:F19" si="15">F$3*G14</f>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:F20" si="15">F$3*G15</f>
         <v>5508500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>0.47899999999999998</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" ref="J14:J19" si="16">J$3*K14</f>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15:J20" si="16">J$3*K15</f>
         <v>6530400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="3">
         <v>0.90700000000000003</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="4">
-        <f>N$3*O14</f>
+      <c r="N15" s="4">
+        <f>N$3*O15</f>
         <v>4641767</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O15" s="3">
         <v>0.92300000000000004</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="4">
-        <f t="shared" ref="R14:R19" si="17">R$3*S14</f>
+      <c r="R15" s="4">
+        <f t="shared" ref="R15:R20" si="17">R$3*S15</f>
         <v>1197912</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S15" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U15" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V15" s="4">
         <f t="shared" si="8"/>
         <v>3453079</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W15" s="3">
         <v>0.93100000000000005</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y15" t="s">
         <v>7</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z15" s="4">
         <f t="shared" si="9"/>
         <v>1001889.0000000001</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA15" s="3">
         <v>0.27900000000000003</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC15" t="s">
         <v>7</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD15" s="4">
         <f t="shared" si="10"/>
         <v>2859360</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE15" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AG15" t="s">
         <v>7</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH15" s="4">
         <f t="shared" si="11"/>
         <v>2539759</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI15" s="3">
         <v>0.94099999999999995</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK15" t="s">
         <v>7</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AL15" s="4">
         <f t="shared" si="12"/>
         <v>1481181</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AM15" s="3">
         <v>0.69899999999999995</v>
       </c>
-      <c r="AN14" s="3"/>
-      <c r="AO14" t="s">
+      <c r="AN15" s="3"/>
+      <c r="AO15" t="s">
         <v>7</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="AP15" s="4">
         <f t="shared" si="13"/>
         <v>1853384</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ15" s="3">
         <v>0.92300000000000004</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AS15" t="s">
         <v>7</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="AT15" s="4">
         <f t="shared" si="14"/>
         <v>1601888</v>
       </c>
-      <c r="AU14" s="3">
+      <c r="AU15" s="3">
         <v>0.88600000000000001</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AW15" t="s">
         <v>7</v>
       </c>
-      <c r="AX14" s="4">
-        <f t="shared" ref="AX14:AX19" si="18">AX$3*AY14</f>
+      <c r="AX15" s="4">
+        <f t="shared" ref="AX15:AX20" si="18">AX$3*AY15</f>
         <v>208772</v>
       </c>
-      <c r="AY14" s="3">
+      <c r="AY15" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BA15" t="s">
         <v>7</v>
       </c>
-      <c r="BB14" s="4">
-        <f t="shared" ref="BB14:BB19" si="19">BB$3*BC14</f>
+      <c r="BB15" s="4">
+        <f t="shared" ref="BB15:BB20" si="19">BB$3*BC15</f>
         <v>202956</v>
       </c>
-      <c r="BC14" s="2">
+      <c r="BC15" s="2">
         <v>0.156</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BE15" t="s">
         <v>7</v>
       </c>
-      <c r="BF14" s="4">
-        <f t="shared" ref="BF14:BF19" si="20">BF$3*BG14</f>
+      <c r="BF15" s="4">
+        <f t="shared" ref="BF15:BF20" si="20">BF$3*BG15</f>
         <v>963824</v>
       </c>
-      <c r="BG14" s="3">
+      <c r="BG15" s="3">
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <f t="shared" si="6"/>
         <v>2844900</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <f t="shared" si="15"/>
         <v>736000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="16"/>
         <v>122400.00000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="4">
-        <f t="shared" ref="N15:N19" si="21">N$3*O15</f>
+      <c r="N16" s="4">
+        <f t="shared" ref="N16:N20" si="21">N$3*O16</f>
         <v>90522</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O16" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q16" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="17"/>
         <v>2459094</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S16" s="3">
         <v>0.58299999999999996</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U16" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V16" s="4">
         <f t="shared" si="8"/>
         <v>40799</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W16" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y16" t="s">
         <v>10</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z16" s="4">
         <f t="shared" si="9"/>
         <v>68229</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA16" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC16" t="s">
         <v>10</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AD16" s="4">
         <f t="shared" si="10"/>
         <v>135240</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE16" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG16" t="s">
         <v>10</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AH16" s="4">
         <f t="shared" si="11"/>
         <v>29689</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI16" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK16" t="s">
         <v>10</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AL16" s="4">
         <f t="shared" si="12"/>
         <v>548821</v>
       </c>
-      <c r="AM15" s="3">
+      <c r="AM16" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="AN15" s="3"/>
-      <c r="AO15" t="s">
+      <c r="AN16" s="3"/>
+      <c r="AO16" t="s">
         <v>10</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AP16" s="4">
         <f t="shared" si="13"/>
         <v>36144</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ16" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AS16" t="s">
         <v>10</v>
       </c>
-      <c r="AT15" s="4">
+      <c r="AT16" s="4">
         <f t="shared" si="14"/>
         <v>112096</v>
       </c>
-      <c r="AU15" s="3">
+      <c r="AU16" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AW16" t="s">
         <v>10</v>
       </c>
-      <c r="AX15" s="4">
+      <c r="AX16" s="4">
         <f t="shared" si="18"/>
         <v>151126</v>
       </c>
-      <c r="AY15" s="3">
+      <c r="AY16" s="3">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BA16" t="s">
         <v>10</v>
       </c>
-      <c r="BB15" s="4">
+      <c r="BB16" s="4">
         <f t="shared" si="19"/>
         <v>511293</v>
       </c>
-      <c r="BC15" s="2">
+      <c r="BC16" s="2">
         <v>0.39300000000000002</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BE16" t="s">
         <v>10</v>
       </c>
-      <c r="BF15" s="4">
+      <c r="BF16" s="4">
         <f t="shared" si="20"/>
         <v>1021</v>
       </c>
-      <c r="BG15" s="3">
+      <c r="BG16" s="3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <f t="shared" si="6"/>
         <v>1602300</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="15"/>
         <v>80500</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="4">
         <f t="shared" si="16"/>
         <v>324000</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="4">
         <f t="shared" si="21"/>
         <v>105609</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O17" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q17" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R17" s="4">
         <f t="shared" si="17"/>
         <v>46398</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S17" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U17" t="s">
         <v>11</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V17" s="4">
         <f t="shared" si="8"/>
         <v>25963</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W17" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y17" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z17" s="4">
         <f t="shared" si="9"/>
         <v>2276694</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA17" s="3">
         <v>0.63400000000000001</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC17" t="s">
         <v>11</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AD17" s="4">
         <f t="shared" si="10"/>
         <v>22540</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE17" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG17" t="s">
         <v>11</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AH17" s="4">
         <f t="shared" si="11"/>
         <v>16194</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI17" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AK17" t="s">
         <v>11</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AL17" s="4">
         <f t="shared" si="12"/>
         <v>4238</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AM17" s="3">
         <v>2E-3</v>
       </c>
-      <c r="AN16" s="3"/>
-      <c r="AO16" t="s">
+      <c r="AN17" s="3"/>
+      <c r="AO17" t="s">
         <v>11</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AP17" s="4">
         <f t="shared" si="13"/>
         <v>42168</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ17" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AS17" t="s">
         <v>11</v>
       </c>
-      <c r="AT16" s="4">
+      <c r="AT17" s="4">
         <f t="shared" si="14"/>
         <v>5424</v>
       </c>
-      <c r="AU16" s="3">
+      <c r="AU17" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AW17" t="s">
         <v>11</v>
       </c>
-      <c r="AX16" s="4">
+      <c r="AX17" s="4">
         <f t="shared" si="18"/>
         <v>3271.7999999999997</v>
       </c>
-      <c r="AY16" s="3">
+      <c r="AY17" s="3">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BA17" t="s">
         <v>11</v>
       </c>
-      <c r="BB16" s="4">
+      <c r="BB17" s="4">
         <f t="shared" si="19"/>
         <v>2602</v>
       </c>
-      <c r="BC16" s="2">
+      <c r="BC17" s="2">
         <v>2E-3</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BE17" t="s">
         <v>11</v>
       </c>
-      <c r="BF16" s="4">
+      <c r="BF17" s="4">
         <f t="shared" si="20"/>
         <v>14294</v>
       </c>
-      <c r="BG16" s="3">
+      <c r="BG17" s="3">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <f t="shared" si="6"/>
         <v>719400</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <f t="shared" si="15"/>
         <v>4404500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>0.38300000000000001</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <f t="shared" si="16"/>
         <v>50400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K18" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="4">
         <f t="shared" si="21"/>
         <v>45261</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O18" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q18" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="17"/>
         <v>7592.4</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S18" s="3">
         <v>1.8E-3</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U18" t="s">
         <v>12</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V18" s="4">
         <f t="shared" si="8"/>
         <v>29672</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W18" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y18" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z18" s="4">
         <f t="shared" si="9"/>
         <v>32318.999999999996</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA18" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC18" t="s">
         <v>12</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AD18" s="4">
         <f t="shared" si="10"/>
         <v>138460</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE18" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG18" t="s">
         <v>12</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AH18" s="4">
         <f t="shared" si="11"/>
         <v>21592</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI18" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AK18" t="s">
         <v>12</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AL18" s="4">
         <f t="shared" si="12"/>
         <v>40261</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AM18" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="AN17" s="3"/>
-      <c r="AO17" t="s">
+      <c r="AN18" s="3"/>
+      <c r="AO18" t="s">
         <v>12</v>
       </c>
-      <c r="AP17" s="4">
+      <c r="AP18" s="4">
         <f t="shared" si="13"/>
         <v>18072</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ18" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AS18" t="s">
         <v>12</v>
       </c>
-      <c r="AT17" s="4">
+      <c r="AT18" s="4">
         <f t="shared" si="14"/>
         <v>37968</v>
       </c>
-      <c r="AU17" s="3">
+      <c r="AU18" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AW18" t="s">
         <v>12</v>
       </c>
-      <c r="AX17" s="4">
+      <c r="AX18" s="4">
         <f t="shared" si="18"/>
         <v>1154478</v>
       </c>
-      <c r="AY17" s="3">
+      <c r="AY18" s="3">
         <v>0.74099999999999999</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BA18" t="s">
         <v>12</v>
       </c>
-      <c r="BB17" s="4">
+      <c r="BB18" s="4">
         <f t="shared" si="19"/>
         <v>15612</v>
       </c>
-      <c r="BC17" s="2">
+      <c r="BC18" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BE18" t="s">
         <v>12</v>
       </c>
-      <c r="BF17" s="4">
+      <c r="BF18" s="4">
         <f t="shared" si="20"/>
         <v>408.40000000000003</v>
       </c>
-      <c r="BG17" s="3">
+      <c r="BG18" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <f t="shared" si="6"/>
         <v>490500</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="15"/>
         <v>23000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>2E-3</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <f t="shared" si="16"/>
         <v>79200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N19" s="4">
         <f t="shared" si="21"/>
         <v>15087</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q19" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="17"/>
         <v>307914</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S19" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U19" t="s">
         <v>13</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V19" s="4">
         <f t="shared" si="8"/>
         <v>11127</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y19" t="s">
         <v>13</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z19" s="4">
         <f t="shared" si="9"/>
         <v>154413</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA19" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC19" t="s">
         <v>13</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AD19" s="4">
         <f t="shared" si="10"/>
         <v>32200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE19" s="3">
         <v>0.01</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AG19" t="s">
         <v>13</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AH19" s="4">
         <f t="shared" si="11"/>
         <v>5398</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI19" s="3">
         <v>2E-3</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AK19" t="s">
         <v>13</v>
       </c>
-      <c r="AL18" s="4">
+      <c r="AL19" s="4">
         <f t="shared" si="12"/>
         <v>6357</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AM19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AN18" s="3"/>
-      <c r="AO18" t="s">
+      <c r="AN19" s="3"/>
+      <c r="AO19" t="s">
         <v>13</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AP19" s="4">
         <f t="shared" si="13"/>
         <v>6024</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AS19" t="s">
         <v>13</v>
       </c>
-      <c r="AT18" s="4">
+      <c r="AT19" s="4">
         <f t="shared" si="14"/>
         <v>11028.800000000001</v>
       </c>
-      <c r="AU18" s="3">
+      <c r="AU19" s="3">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AW19" t="s">
         <v>13</v>
       </c>
-      <c r="AX18" s="4">
+      <c r="AX19" s="4">
         <f t="shared" si="18"/>
         <v>5920.4</v>
       </c>
-      <c r="AY18" s="3">
+      <c r="AY19" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BA19" t="s">
         <v>13</v>
       </c>
-      <c r="BB18" s="4">
+      <c r="BB19" s="4">
         <f t="shared" si="19"/>
         <v>107983</v>
       </c>
-      <c r="BC18" s="2">
+      <c r="BC19" s="2">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BE19" t="s">
         <v>13</v>
       </c>
-      <c r="BF18" s="4">
+      <c r="BF19" s="4">
         <f t="shared" si="20"/>
         <v>816.80000000000007</v>
       </c>
-      <c r="BG18" s="3">
+      <c r="BG19" s="3">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4">
         <f t="shared" si="6"/>
         <v>817499.99999999709</v>
       </c>
-      <c r="C19" s="5">
-        <f>1-SUM(C14:C18)</f>
+      <c r="C20" s="5">
+        <f>1-SUM(C15:C19)</f>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <f t="shared" si="15"/>
         <v>747500.0000000007</v>
       </c>
-      <c r="G19" s="5">
-        <f>1-SUM(G14:G18)</f>
+      <c r="G20" s="5">
+        <f>1-SUM(G15:G19)</f>
         <v>6.5000000000000058E-2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="16"/>
         <v>93599.999999999287</v>
       </c>
-      <c r="K19" s="5">
-        <f>1-SUM(K14:K18)</f>
+      <c r="K20" s="5">
+        <f>1-SUM(K15:K19)</f>
         <v>1.2999999999999901E-2</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="4">
         <f t="shared" si="21"/>
         <v>130753.99999999956</v>
       </c>
-      <c r="O19" s="5">
-        <f>1-SUM(O14:O18)</f>
+      <c r="O20" s="5">
+        <f>1-SUM(O15:O19)</f>
         <v>2.5999999999999912E-2</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q20" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R20" s="4">
         <f t="shared" si="17"/>
         <v>199089.60000000009</v>
       </c>
-      <c r="S19" s="5">
-        <f>1-SUM(S14:S18)</f>
+      <c r="S20" s="5">
+        <f>1-SUM(S15:S19)</f>
         <v>4.720000000000002E-2</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U20" t="s">
         <v>6</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V20" s="4">
         <f t="shared" si="8"/>
         <v>148359.99999999971</v>
       </c>
-      <c r="W19" s="3">
-        <f>1-SUM(W14:W18)</f>
+      <c r="W20" s="3">
+        <f>1-SUM(W15:W19)</f>
         <v>3.9999999999999925E-2</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y20" t="s">
         <v>6</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z20" s="4">
         <f t="shared" si="9"/>
         <v>57455.999999999651</v>
       </c>
-      <c r="AA19" s="5">
-        <f>1-SUM(AA14:AA18)</f>
+      <c r="AA20" s="5">
+        <f>1-SUM(AA15:AA19)</f>
         <v>1.5999999999999903E-2</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC20" t="s">
         <v>6</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AD20" s="4">
         <f t="shared" si="10"/>
         <v>32199.999999999673</v>
       </c>
-      <c r="AE19" s="3">
-        <f>1-SUM(AE14:AE18)</f>
+      <c r="AE20" s="3">
+        <f>1-SUM(AE15:AE19)</f>
         <v>9.9999999999998979E-3</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AG20" t="s">
         <v>6</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AH20" s="4">
         <f t="shared" si="11"/>
         <v>86368.000000000073</v>
       </c>
-      <c r="AI19" s="5">
-        <f>1-SUM(AI14:AI18)</f>
+      <c r="AI20" s="5">
+        <f>1-SUM(AI15:AI19)</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK20" t="s">
         <v>6</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AL20" s="4">
         <f t="shared" si="12"/>
         <v>38142.000000000036</v>
       </c>
-      <c r="AM19" s="5">
-        <f>1-SUM(AM14:AM18)</f>
+      <c r="AM20" s="5">
+        <f>1-SUM(AM15:AM19)</f>
         <v>1.8000000000000016E-2</v>
       </c>
-      <c r="AN19" s="5"/>
-      <c r="AO19" t="s">
+      <c r="AN20" s="5"/>
+      <c r="AO20" t="s">
         <v>6</v>
       </c>
-      <c r="AP19" s="4">
+      <c r="AP20" s="4">
         <f t="shared" si="13"/>
         <v>52207.999999999825</v>
       </c>
-      <c r="AQ19" s="5">
-        <f>1-SUM(AQ14:AQ18)</f>
+      <c r="AQ20" s="5">
+        <f>1-SUM(AQ15:AQ19)</f>
         <v>2.5999999999999912E-2</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AS20" t="s">
         <v>6</v>
       </c>
-      <c r="AT19" s="4">
+      <c r="AT20" s="4">
         <f t="shared" si="14"/>
         <v>39595.200000000055</v>
       </c>
-      <c r="AU19" s="3">
-        <f>1-SUM(AU14:AU18)</f>
+      <c r="AU20" s="3">
+        <f>1-SUM(AU15:AU19)</f>
         <v>2.1900000000000031E-2</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AW20" t="s">
         <v>6</v>
       </c>
-      <c r="AX19" s="4">
+      <c r="AX20" s="4">
         <f t="shared" si="18"/>
         <v>34431.80000000001</v>
       </c>
-      <c r="AY19" s="3">
-        <f>1-SUM(AY14:AY18)</f>
+      <c r="AY20" s="3">
+        <f>1-SUM(AY15:AY19)</f>
         <v>2.2100000000000009E-2</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BA20" t="s">
         <v>6</v>
       </c>
-      <c r="BB19" s="4">
+      <c r="BB20" s="4">
         <f t="shared" si="19"/>
         <v>460554</v>
       </c>
-      <c r="BC19" s="3">
-        <f>1-SUM(BC14:BC18)</f>
+      <c r="BC20" s="3">
+        <f>1-SUM(BC15:BC19)</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BE20" t="s">
         <v>6</v>
       </c>
-      <c r="BF19" s="4">
+      <c r="BF20" s="4">
         <f t="shared" si="20"/>
         <v>40635.800000000061</v>
       </c>
-      <c r="BG19" s="3">
-        <f>1-SUM(BG14:BG18)</f>
+      <c r="BG20" s="3">
+        <f>1-SUM(BG15:BG19)</f>
         <v>3.9800000000000058E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>5708000</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>4115000</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <v>2700000</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N25" s="1">
         <v>2740000</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q25" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R25" s="1">
         <v>918000</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U25" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V25" s="1">
         <v>1305000</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y25" t="s">
         <v>16</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z25" s="1">
         <v>566000</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC25" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD25" s="1">
         <v>690000</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG25" t="s">
         <v>16</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH25" s="1">
         <v>1198000</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AK25" t="s">
         <v>16</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AL25" s="1">
         <v>491000</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AO25" t="s">
         <v>16</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AP25" s="1">
         <v>405000</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AS25" t="s">
         <v>16</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AT25" s="1">
         <v>668000</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AW25" t="s">
         <v>16</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AX25" s="1">
         <v>225000</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BA25" t="s">
         <v>16</v>
       </c>
-      <c r="BB24" s="1">
+      <c r="BB25" s="1">
         <v>91000</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BE25" t="s">
         <v>16</v>
       </c>
-      <c r="BF24" s="1">
+      <c r="BF25" s="1">
         <v>180000</v>
       </c>
     </row>
@@ -2992,10 +3155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3E62A3-3594-4358-A77B-AEC2DCECED91}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3011,12 +3174,12 @@
     <col min="17" max="17" width="10.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3027,24 +3190,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
         <f>B$3*C6</f>
-        <v>57613037</v>
+        <v>56161827</v>
       </c>
       <c r="C6" s="5">
-        <v>0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3219,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3068,1029 +3231,1089 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B9" s="4">
-        <f>M30+3000</f>
-        <v>667033.53000000014</v>
+        <f>M31+5500</f>
+        <v>1689709.4099999997</v>
       </c>
       <c r="C9" s="5">
         <f>B9/B$3</f>
+        <v>1.1643452084811982E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <f>M32+3000</f>
+        <v>667033.53000000014</v>
+      </c>
+      <c r="C10" s="5">
+        <f>B10/B$3</f>
         <v>4.596395628475549E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>403100</v>
       </c>
-      <c r="C10" s="5">
-        <f>B10/B3</f>
+      <c r="C11" s="5">
+        <f>B11/B3</f>
         <v>2.7776820722018179E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <f>B$3*C11</f>
-        <v>6621279.469999996</v>
-      </c>
-      <c r="C11" s="5">
-        <f>1-SUM(C6:C10)</f>
-        <v>4.5625922299322608E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="4">
+        <f>B$3*C12</f>
+        <v>6382780.0599999968</v>
+      </c>
+      <c r="C12" s="5">
+        <f>1-SUM(C6:C11)</f>
+        <v>4.3982470214510627E-2</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
-        <f t="shared" ref="B14:B19" si="1">B$3*C14</f>
+      <c r="B15" s="4">
+        <f t="shared" ref="B15:B20" si="1">B$3*C15</f>
         <v>96215223</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="3">
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>18430367</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="3">
         <v>0.127</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>9142623</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="3">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>15092584</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="3">
         <v>0.104</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>1886573</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>4353630.0000000037</v>
       </c>
-      <c r="C19" s="5">
-        <f>1-SUM(C14:C18)</f>
+      <c r="C20" s="5">
+        <f>1-SUM(C15:C19)</f>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <f>cities!B3+cities!F3+cities!J3+cities!N3+cities!R3+cities!V3+cities!Z3+cities!AD3+cities!AH3+cities!AL3+cities!AP3+cities!AT3+cities!AX3+cities!BB3+cities!BF3</f>
         <v>83681000</v>
       </c>
-      <c r="F21" s="5">
-        <f>E21/B3</f>
-        <v>0.57662915773733647</v>
-      </c>
-      <c r="L21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1">
-        <f>cities!B24+cities!F24+cities!J24+cities!N24+cities!R24+cities!V24+cities!Z24+cities!AD24+cities!AH24+cities!AP24+cities!AL24+cities!AT24+cities!AX24+cities!BB24+cities!BF24</f>
-        <v>22000000</v>
-      </c>
       <c r="F22" s="5">
         <f>E22/B3</f>
-        <v>0.15159763232061521</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>0.57662915773733647</v>
+      </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
-        <f>SUM(E21:E22)</f>
-        <v>105681000</v>
+        <f>cities!B25+cities!F25+cities!J25+cities!N25+cities!R25+cities!V25+cities!Z25+cities!AD25+cities!AH25+cities!AP25+cities!AL25+cities!AT25+cities!AX25+cities!BB25+cities!BF25</f>
+        <v>22000000</v>
       </c>
       <c r="F23" s="5">
-        <f>SUM(F21:F22)</f>
-        <v>0.72822679005795166</v>
+        <f>E23/B3</f>
+        <v>0.15159763232061521</v>
       </c>
       <c r="G23" s="5"/>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUM(E22:E23)</f>
+        <v>105681000</v>
+      </c>
+      <c r="F24" s="5">
+        <f>SUM(F22:F23)</f>
+        <v>0.72822679005795166</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="1">
-        <f>B3-E23</f>
+      <c r="E25" s="1">
+        <f>B3-E24</f>
         <v>39440000</v>
       </c>
-      <c r="F24" s="5">
-        <f>E24/B3</f>
+      <c r="F25" s="5">
+        <f>E25/B3</f>
         <v>0.27177320994204834</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="J25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="4">
-        <f>cities!B6+cities!F6+cities!J6+cities!N6+cities!R6+cities!V6+cities!Z6+cities!AD6+cities!AH6+cities!AL6+cities!AP6+cities!AT6+cities!AX6+cities!BB6+cities!BF6</f>
-        <v>34586711</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ref="F27:F32" si="2">E27/E$21</f>
-        <v>0.41331617690993178</v>
-      </c>
-      <c r="H27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" ref="I27:I32" si="3">E$22*J27</f>
-        <v>7882955.8920184989</v>
-      </c>
-      <c r="J27" s="5">
-        <f>F27-5.5%</f>
-        <v>0.35831617690993178</v>
-      </c>
-      <c r="L27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="9">
-        <f>E27+I27</f>
-        <v>42469666.892018497</v>
-      </c>
-      <c r="N27" s="5">
-        <f t="shared" ref="N27:N32" si="4">M27/E$23</f>
-        <v>0.40186662590265515</v>
-      </c>
-      <c r="P27" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="9">
-        <f t="shared" ref="Q27:Q32" si="5">B6-M27</f>
-        <v>15143370.107981503</v>
-      </c>
-      <c r="R27" s="5">
-        <f t="shared" ref="R27:R32" si="6">Q27/E$24</f>
-        <v>0.383959688336245</v>
-      </c>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="4">
-        <f>cities!B7+cities!F7+cities!J7+cities!N7+cities!R7+cities!V7+cities!Z7+cities!AD7+cities!AH7+cities!AL7+cities!AP7+cities!AT7+cities!AX7+cities!BB7+cities!BF7</f>
-        <v>26385602</v>
+        <f>cities!B6+cities!F6+cities!J6+cities!N6+cities!R6+cities!V6+cities!Z6+cities!AD6+cities!AH6+cities!AL6+cities!AP6+cities!AT6+cities!AX6+cities!BB6+cities!BF6</f>
+        <v>32800029.600000001</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
-        <v>0.31531174340650803</v>
+        <f t="shared" ref="F28:F34" si="2">E28/E$22</f>
+        <v>0.39196507689917665</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="3"/>
-        <v>7178858.3549431767</v>
+        <f>E$23*J28</f>
+        <v>7193231.6917818859</v>
       </c>
       <c r="J28" s="5">
-        <f>F28+1.1%</f>
-        <v>0.32631174340650804</v>
+        <f>F28-6.5%</f>
+        <v>0.32696507689917664</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" ref="M28:M40" si="7">E28+I28</f>
-        <v>33564460.354943179</v>
+        <f>E28+I28</f>
+        <v>39993261.291781887</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="4"/>
-        <v>0.31760165360796339</v>
+        <f t="shared" ref="N28:N34" si="3">M28/E$24</f>
+        <v>0.37843378934512245</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="5"/>
-        <v>10407202.645056821</v>
+        <f>B6-M28</f>
+        <v>16168565.708218113</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="6"/>
-        <v>0.26387430641624798</v>
+        <f t="shared" ref="R28:R34" si="4">Q28/E$25</f>
+        <v>0.40995349158768035</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4">
+        <f>cities!B7+cities!F7+cities!J7+cities!N7+cities!R7+cities!V7+cities!Z7+cities!AD7+cities!AH7+cities!AL7+cities!AP7+cities!AT7+cities!AX7+cities!BB7+cities!BF7</f>
+        <v>26366902</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>0.31508827571372233</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" ref="I28:I34" si="5">E$23*J29</f>
+        <v>7173942.0657018917</v>
+      </c>
+      <c r="J29" s="5">
+        <f>F29+1.1%</f>
+        <v>0.32608827571372234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" ref="M29:M42" si="6">E29+I29</f>
+        <v>33540844.065701891</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="3"/>
+        <v>0.31737818591517769</v>
+      </c>
+      <c r="P29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="9">
+        <f>B7-M29</f>
+        <v>10430818.934298109</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2644730967114125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <f>cities!B8+cities!F8+cities!J8+cities!N8+cities!R8+cities!V8+cities!Z8+cities!AD8+cities!AH8+cities!AL8+cities!AP8+cities!AT8+cities!AX8+cities!BB8+cities!BF8</f>
         <v>17566313.5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <f t="shared" si="2"/>
         <v>0.20991997586070912</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
+        <f t="shared" si="5"/>
+        <v>6114239.4689356014</v>
+      </c>
+      <c r="J30" s="5">
+        <f>F30+6.8%</f>
+        <v>0.27791997586070916</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="6"/>
+        <v>23680552.968935601</v>
+      </c>
+      <c r="N30" s="5">
         <f t="shared" si="3"/>
-        <v>6114239.4689356014</v>
-      </c>
-      <c r="J29" s="5">
-        <f>F29+6.8%</f>
-        <v>0.27791997586070916</v>
-      </c>
-      <c r="L29" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="7"/>
-        <v>23680552.968935601</v>
-      </c>
-      <c r="N29" s="5">
+        <v>0.22407578437879658</v>
+      </c>
+      <c r="P30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="9">
+        <f>B8-M30</f>
+        <v>12164334.031064399</v>
+      </c>
+      <c r="R30" s="5">
         <f t="shared" si="4"/>
-        <v>0.22407578437879658</v>
-      </c>
-      <c r="P29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="9">
-        <f t="shared" si="5"/>
-        <v>12164334.031064399</v>
-      </c>
-      <c r="R29" s="5">
-        <f t="shared" si="6"/>
         <v>0.30842631924605474</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="4">
+        <f>cities!B9+cities!F9+cities!J9+cities!N9+cities!R9+cities!V9+cities!Z9+cities!AD9+cities!AH9+cities!AL9+cities!AP9+cities!AT9+cities!AX9+cities!BB9+cities!BF9</f>
+        <v>1618209.4099999997</v>
+      </c>
+      <c r="F31" s="5">
+        <f>E31/E$22</f>
+        <v>1.9337835470417414E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="4">
+        <f>E$23*J31</f>
+        <v>66000</v>
+      </c>
+      <c r="J31" s="3">
+        <f>0.3%</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="9">
+        <f>E31+I31</f>
+        <v>1684209.4099999997</v>
+      </c>
+      <c r="N31" s="5">
+        <f>M31/E$24</f>
+        <v>1.5936728551016736E-2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="9">
+        <f>B9-M31</f>
+        <v>5500</v>
+      </c>
+      <c r="R31" s="5">
+        <f>Q31/E$25</f>
+        <v>1.3945233265720081E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="4">
-        <f>cities!B9+cities!F9+cities!J9+cities!N9+cities!R9+cities!V9+cities!Z9+cities!AD9+cities!AH9+cities!AL9+cities!AP9+cities!AT9+cities!AX9+cities!BB9+cities!BF9</f>
+      <c r="E32" s="4">
+        <f>cities!B10+cities!F10+cities!J10+cities!N10+cities!R10+cities!V10+cities!Z10+cities!AD10+cities!AH10+cities!AL10+cities!AP10+cities!AT10+cities!AX10+cities!BB10+cities!BF10</f>
         <v>653033.53000000014</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F32" s="5">
         <f t="shared" si="2"/>
         <v>7.8038447198288761E-3</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="3"/>
+      <c r="I32" s="4">
+        <f t="shared" si="5"/>
         <v>11000</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J32" s="3">
         <f>0.05%</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L32" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="9">
-        <f t="shared" si="7"/>
+      <c r="M32" s="9">
+        <f t="shared" si="6"/>
         <v>664033.53000000014</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="4"/>
+      <c r="N32" s="5">
+        <f>M32/E$24</f>
         <v>6.2833766713032632E-3</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P32" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="9">
-        <f t="shared" si="5"/>
+      <c r="Q32" s="9">
+        <f>B10-M32</f>
         <v>3000</v>
       </c>
-      <c r="R30" s="5">
-        <f t="shared" si="6"/>
+      <c r="R32" s="5">
+        <f>Q32/E$25</f>
         <v>7.6064908722109532E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="4">
-        <f>cities!B10+cities!F10+cities!J10+cities!N10+cities!R10+cities!V10+cities!Z10+cities!AD10+cities!AH10+cities!AL10+cities!AP10+cities!AT10+cities!AX10+cities!BB10+cities!BF10</f>
+      <c r="E33" s="4">
+        <f>cities!B11+cities!F11+cities!J11+cities!N11+cities!R11+cities!V11+cities!Z11+cities!AD11+cities!AH11+cities!AL11+cities!AP11+cities!AT11+cities!AX11+cities!BB11+cities!BF11</f>
         <v>137008.47999999998</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>1.6372710651163345E-3</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H33" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I33" s="4">
+        <f t="shared" si="5"/>
+        <v>36019.963432559358</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" ref="J33" si="7">F33</f>
+        <v>1.6372710651163345E-3</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="6"/>
+        <v>173028.44343255935</v>
+      </c>
+      <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>36019.963432559358</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" ref="J31" si="8">F31</f>
         <v>1.6372710651163345E-3</v>
       </c>
-      <c r="L31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="7"/>
-        <v>173028.44343255935</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="9">
+        <f>B11-M33</f>
+        <v>230071.55656744065</v>
+      </c>
+      <c r="R33" s="5">
         <f t="shared" si="4"/>
-        <v>1.6372710651163345E-3</v>
-      </c>
-      <c r="P31" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="9">
+        <v>5.8334573166186777E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="4">
+        <f>cities!B12+cities!F12+cities!J12+cities!N12+cities!R12+cities!V12+cities!Z12+cities!AD12+cities!AH12+cities!AL12+cities!AP12+cities!AT12+cities!AX12+cities!BB12+cities!BF12</f>
+        <v>4539503.4800000004</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4247720271029275E-2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="4">
         <f t="shared" si="5"/>
-        <v>230071.55656744065</v>
-      </c>
-      <c r="R31" s="5">
+        <v>1405566.8101480622</v>
+      </c>
+      <c r="J34" s="3">
+        <f>1-SUM(J28:J33)</f>
+        <v>6.3889400461275558E-2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="9">
         <f t="shared" si="6"/>
-        <v>5.8334573166186777E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="4">
-        <f>cities!B11+cities!F11+cities!J11+cities!N11+cities!R11+cities!V11+cities!Z11+cities!AD11+cities!AH11+cities!AL11+cities!AP11+cities!AT11+cities!AX11+cities!BB11+cities!BF11</f>
-        <v>4352331.4899999993</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="2"/>
-        <v>5.2010988037905846E-2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="4">
+        <v>5945070.2901480626</v>
+      </c>
+      <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>776926.32067016396</v>
-      </c>
-      <c r="J32" s="3">
-        <f>1-SUM(J27:J31)</f>
-        <v>3.5314832757734727E-2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="7"/>
-        <v>5129257.8106701635</v>
-      </c>
-      <c r="N32" s="5">
+        <v>5.625486407346697E-2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="9">
+        <f>B12-M34</f>
+        <v>437709.76985193416</v>
+      </c>
+      <c r="R34" s="5">
         <f t="shared" si="4"/>
-        <v>4.8535288374165306E-2</v>
-      </c>
-      <c r="P32" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q32" s="9">
-        <f t="shared" si="5"/>
-        <v>1492021.6593298325</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="6"/>
-        <v>3.783016377611137E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="I33" s="4"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="5"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="5"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="5"/>
+        <v>1.1098117896854314E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="4">
-        <f>cities!B14+cities!F14+cities!J14+cities!N14+cities!R14+cities!V14+cities!Z14+cities!AD14+cities!AH14+cities!AL14+cities!AP14+cities!AT14+cities!AX14+cities!BB14+cities!BF14</f>
-        <v>60270071</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" ref="F35:F40" si="9">E35/E$21</f>
-        <v>0.72023602729412894</v>
-      </c>
-      <c r="H35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" ref="I35:I40" si="10">E$22*J35</f>
-        <v>14305192.600470837</v>
-      </c>
-      <c r="J35" s="3">
-        <f>F35-7%</f>
-        <v>0.65023602729412899</v>
-      </c>
-      <c r="L35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="shared" si="7"/>
-        <v>74575263.600470841</v>
-      </c>
-      <c r="N35" s="5">
-        <f t="shared" ref="N35:N40" si="11">M35/E$23</f>
-        <v>0.70566387146668597</v>
-      </c>
-      <c r="P35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q35" s="9">
-        <f t="shared" ref="Q35:Q40" si="12">B14-M35</f>
-        <v>21639959.399529159</v>
-      </c>
-      <c r="R35" s="5">
-        <f t="shared" ref="R35:R40" si="13">Q35/E$24</f>
-        <v>0.54868051215844726</v>
-      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="I35" s="4"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="5"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="5"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="4">
-        <f>cities!B15+cities!F15+cities!J15+cities!N15+cities!R15+cities!V15+cities!Z15+cities!AD15+cities!AH15+cities!AL15+cities!AP15+cities!AT15+cities!AX15+cities!BB15+cities!BF15</f>
-        <v>7887374</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="9"/>
-        <v>9.4255255075823663E-2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="10"/>
-        <v>2293615.6116681206</v>
-      </c>
-      <c r="J36" s="3">
-        <f>F36+1%</f>
-        <v>0.10425525507582366</v>
-      </c>
-      <c r="L36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="9">
-        <f t="shared" si="7"/>
-        <v>10180989.611668121</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="11"/>
-        <v>9.6336991622601231E-2</v>
-      </c>
-      <c r="P36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" s="9">
-        <f t="shared" si="12"/>
-        <v>8249377.3883318789</v>
-      </c>
-      <c r="R36" s="5">
-        <f t="shared" si="13"/>
-        <v>0.20916271268589956</v>
-      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="I36" s="4"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="5"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="4">
-        <f>cities!B16+cities!F16+cities!J16+cities!N16+cities!R16+cities!V16+cities!Z16+cities!AD16+cities!AH16+cities!AL16+cities!AP16+cities!AT16+cities!AX16+cities!BB16+cities!BF16</f>
-        <v>4572195.8</v>
+        <f>cities!B15+cities!F15+cities!J15+cities!N15+cities!R15+cities!V15+cities!Z15+cities!AD15+cities!AH15+cities!AL15+cities!AP15+cities!AT15+cities!AX15+cities!BB15+cities!BF15</f>
+        <v>60270071</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="9"/>
-        <v>5.4638398202698342E-2</v>
+        <f t="shared" ref="F37:F42" si="8">E37/E$22</f>
+        <v>0.72023602729412894</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="10"/>
-        <v>1422044.7604593635</v>
+        <f t="shared" ref="I37:I42" si="9">E$23*J37</f>
+        <v>14305192.600470837</v>
       </c>
       <c r="J37" s="3">
-        <f>F37+1%</f>
-        <v>6.4638398202698344E-2</v>
+        <f>F37-7%</f>
+        <v>0.65023602729412899</v>
       </c>
       <c r="L37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="7"/>
-        <v>5994240.5604593633</v>
+        <f t="shared" si="6"/>
+        <v>74575263.600470841</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="11"/>
-        <v>5.6720134749475903E-2</v>
+        <f t="shared" ref="N37:N42" si="10">M37/E$24</f>
+        <v>0.70566387146668597</v>
       </c>
       <c r="P37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="12"/>
-        <v>3148382.4395406367</v>
+        <f>B15-M37</f>
+        <v>21639959.399529159</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="13"/>
-        <v>7.9827140961983692E-2</v>
+        <f t="shared" ref="R37:R42" si="11">Q37/E$25</f>
+        <v>0.54868051215844726</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38" s="4">
-        <f>cities!B17+cities!F17+cities!J17+cities!N17+cities!R17+cities!V17+cities!Z17+cities!AD17+cities!AH17+cities!AL17+cities!AP17+cities!AT17+cities!AX17+cities!BB17+cities!BF17</f>
-        <v>6715995.8000000007</v>
+        <f>cities!B16+cities!F16+cities!J16+cities!N16+cities!R16+cities!V16+cities!Z16+cities!AD16+cities!AH16+cities!AL16+cities!AP16+cities!AT16+cities!AX16+cities!BB16+cities!BF16</f>
+        <v>7887374</v>
       </c>
       <c r="F38" s="5">
+        <f t="shared" si="8"/>
+        <v>9.4255255075823663E-2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="9"/>
-        <v>8.0257116908258749E-2</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="4">
+        <v>2293615.6116681206</v>
+      </c>
+      <c r="J38" s="3">
+        <f>F38+1%</f>
+        <v>0.10425525507582366</v>
+      </c>
+      <c r="L38" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="6"/>
+        <v>10180989.611668121</v>
+      </c>
+      <c r="N38" s="5">
         <f t="shared" si="10"/>
-        <v>2755656.5719816922</v>
-      </c>
-      <c r="J38" s="3">
-        <f>F38+4.5%</f>
-        <v>0.12525711690825875</v>
-      </c>
-      <c r="L38" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="shared" si="7"/>
-        <v>9471652.3719816934</v>
-      </c>
-      <c r="N38" s="5">
+        <v>9.6336991622601231E-2</v>
+      </c>
+      <c r="P38" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q38" s="9">
+        <f>B16-M38</f>
+        <v>8249377.3883318789</v>
+      </c>
+      <c r="R38" s="5">
         <f t="shared" si="11"/>
-        <v>8.9624931368757807E-2</v>
-      </c>
-      <c r="P38" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q38" s="9">
-        <f t="shared" si="12"/>
-        <v>5620931.6280183066</v>
-      </c>
-      <c r="R38" s="5">
-        <f t="shared" si="13"/>
-        <v>0.14251855040614367</v>
+        <v>0.20916271268589956</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="4">
-        <f>cities!B18+cities!F18+cities!J18+cities!N18+cities!R18+cities!V18+cities!Z18+cities!AD18+cities!AH18+cities!AL18+cities!AP18+cities!AT18+cities!AX18+cities!BB18+cities!BF18</f>
-        <v>1256969</v>
+        <f>cities!B17+cities!F17+cities!J17+cities!N17+cities!R17+cities!V17+cities!Z17+cities!AD17+cities!AH17+cities!AL17+cities!AP17+cities!AT17+cities!AX17+cities!BB17+cities!BF17</f>
+        <v>4572195.8</v>
       </c>
       <c r="F39" s="5">
+        <f t="shared" si="8"/>
+        <v>5.4638398202698342E-2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="4">
         <f t="shared" si="9"/>
-        <v>1.5020960552574658E-2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="4">
+        <v>1422044.7604593635</v>
+      </c>
+      <c r="J39" s="3">
+        <f>F39+1%</f>
+        <v>6.4638398202698344E-2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="6"/>
+        <v>5994240.5604593633</v>
+      </c>
+      <c r="N39" s="5">
         <f t="shared" si="10"/>
-        <v>440461.13215664244</v>
-      </c>
-      <c r="J39" s="3">
-        <f>F39+0.5%</f>
-        <v>2.0020960552574657E-2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="9">
-        <f t="shared" si="7"/>
-        <v>1697430.1321566424</v>
-      </c>
-      <c r="N39" s="5">
+        <v>5.6720134749475903E-2</v>
+      </c>
+      <c r="P39" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="9">
+        <f>B17-M39</f>
+        <v>3148382.4395406367</v>
+      </c>
+      <c r="R39" s="5">
         <f t="shared" si="11"/>
-        <v>1.606182882596344E-2</v>
-      </c>
-      <c r="P39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q39" s="9">
-        <f t="shared" si="12"/>
-        <v>189142.86784335761</v>
-      </c>
-      <c r="R39" s="5">
-        <f t="shared" si="13"/>
-        <v>4.7957116593143412E-3</v>
+        <v>7.9827140961983692E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="4">
+        <f>cities!B18+cities!F18+cities!J18+cities!N18+cities!R18+cities!V18+cities!Z18+cities!AD18+cities!AH18+cities!AL18+cities!AP18+cities!AT18+cities!AX18+cities!BB18+cities!BF18</f>
+        <v>6715995.8000000007</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="8"/>
+        <v>8.0257116908258749E-2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="9"/>
+        <v>2755656.5719816922</v>
+      </c>
+      <c r="J40" s="3">
+        <f>F40+4.5%</f>
+        <v>0.12525711690825875</v>
+      </c>
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="6"/>
+        <v>9471652.3719816934</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="10"/>
+        <v>8.9624931368757807E-2</v>
+      </c>
+      <c r="P40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>B18-M40</f>
+        <v>5620931.6280183066</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="11"/>
+        <v>0.14251855040614367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="4">
+        <f>cities!B19+cities!F19+cities!J19+cities!N19+cities!R19+cities!V19+cities!Z19+cities!AD19+cities!AH19+cities!AL19+cities!AP19+cities!AT19+cities!AX19+cities!BB19+cities!BF19</f>
+        <v>1256969</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="8"/>
+        <v>1.5020960552574658E-2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="9"/>
+        <v>440461.13215664244</v>
+      </c>
+      <c r="J41" s="3">
+        <f>F41+0.5%</f>
+        <v>2.0020960552574657E-2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="6"/>
+        <v>1697430.1321566424</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="10"/>
+        <v>1.606182882596344E-2</v>
+      </c>
+      <c r="P41" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="9">
+        <f>B19-M41</f>
+        <v>189142.86784335761</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="11"/>
+        <v>4.7957116593143412E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="4">
-        <f>cities!B19+cities!F19+cities!J19+cities!N19+cities!R19+cities!V19+cities!Z19+cities!AD19+cities!AH19+cities!AL19+cities!AP19+cities!AT19+cities!AX19+cities!BB19+cities!BF19</f>
+      <c r="E42" s="4">
+        <f>cities!B20+cities!F20+cities!J20+cities!N20+cities!R20+cities!V20+cities!Z20+cities!AD20+cities!AH20+cities!AL20+cities!AP20+cities!AT20+cities!AX20+cities!BB20+cities!BF20</f>
         <v>2978394.3999999957</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F42" s="5">
+        <f t="shared" si="8"/>
+        <v>3.5592241966515642E-2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="4">
         <f t="shared" si="9"/>
-        <v>3.5592241966515642E-2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="4">
+        <v>783029.3232633447</v>
+      </c>
+      <c r="J42" s="3">
+        <f>1-SUM(J37:J41)</f>
+        <v>3.559224196651567E-2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="6"/>
+        <v>3761423.7232633405</v>
+      </c>
+      <c r="N42" s="5">
         <f t="shared" si="10"/>
-        <v>783029.3232633447</v>
-      </c>
-      <c r="J40" s="3">
-        <f>1-SUM(J35:J39)</f>
-        <v>3.559224196651567E-2</v>
-      </c>
-      <c r="L40" t="s">
-        <v>48</v>
-      </c>
-      <c r="M40" s="9">
-        <f t="shared" si="7"/>
-        <v>3761423.7232633405</v>
-      </c>
-      <c r="N40" s="5">
+        <v>3.5592241966515649E-2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="9">
+        <f>B20-M42</f>
+        <v>592206.27673666319</v>
+      </c>
+      <c r="R42" s="5">
         <f t="shared" si="11"/>
-        <v>3.5592241966515649E-2</v>
-      </c>
-      <c r="P40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q40" s="9">
-        <f t="shared" si="12"/>
-        <v>592206.27673666319</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="13"/>
         <v>1.5015372128211541E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
         <v>1</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B45" t="str">
         <f>cities!A1</f>
         <v>Lahore</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C45" s="1">
         <f>cities!B3</f>
         <v>32700000</v>
       </c>
-      <c r="D43" s="1">
-        <f>cities!B3+cities!B24</f>
+      <c r="D45" s="1">
+        <f>cities!B3+cities!B25</f>
         <v>38408000</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
         <v>2</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B46" t="str">
         <f>cities!E1</f>
         <v>Karachi</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C46" s="1">
         <f>cities!F3</f>
         <v>11500000</v>
       </c>
-      <c r="D44" s="1">
-        <f>cities!F3+cities!F24</f>
+      <c r="D46" s="1">
+        <f>cities!F3+cities!F25</f>
         <v>15615000</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
         <v>3</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B47" t="str">
         <f>cities!I1</f>
         <v>Rawalpindi</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C47" s="1">
         <f>cities!J3</f>
         <v>7200000</v>
       </c>
-      <c r="D45" s="1">
-        <f>C45+cities!J24</f>
+      <c r="D47" s="1">
+        <f>C47+cities!J25</f>
         <v>9900000</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
         <v>4</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B48" t="str">
         <f>cities!M1</f>
         <v>Sialkot</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C48" s="1">
         <f>cities!N3</f>
         <v>5029000</v>
       </c>
-      <c r="D46" s="1">
-        <f>cities!N3+cities!N24</f>
+      <c r="D48" s="1">
+        <f>cities!N3+cities!N25</f>
         <v>7769000</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="str">
+      <c r="B49" s="1" t="str">
         <f>cities!Q1</f>
         <v>Peshawar</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C49" s="1">
         <f>cities!R3</f>
         <v>4218000</v>
       </c>
-      <c r="D47" s="1">
-        <f>C47+cities!R24</f>
+      <c r="D49" s="1">
+        <f>C49+cities!R25</f>
         <v>5136000</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
         <v>6</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B50" t="str">
         <f>cities!U1</f>
         <v>Patiala</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C50" s="1">
         <f>cities!V3</f>
         <v>3709000</v>
       </c>
-      <c r="D48" s="1">
-        <f>C48+cities!V24</f>
+      <c r="D50" s="1">
+        <f>C50+cities!V25</f>
         <v>5014000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
         <v>7</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B51" t="str">
         <f>cities!Y1</f>
         <v>Srinagar</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C51" s="1">
         <f>cities!Z3</f>
         <v>3591000</v>
       </c>
-      <c r="D49" s="1">
-        <f>C49+cities!Z24</f>
+      <c r="D51" s="1">
+        <f>C51+cities!Z25</f>
         <v>4157000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
         <v>8</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B52" t="str">
         <f>cities!AC1</f>
         <v>Multan</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C52" s="1">
         <f>cities!AD3</f>
         <v>3220000</v>
       </c>
-      <c r="D50" s="1">
-        <f>cities!AD24+cities!AD3</f>
+      <c r="D52" s="1">
+        <f>cities!AD25+cities!AD3</f>
         <v>3910000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
         <v>9</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B53" t="str">
         <f>cities!AG1</f>
         <v>Ludhiana</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C53" s="1">
         <f>cities!AH3</f>
         <v>2699000</v>
       </c>
-      <c r="D51" s="1">
-        <f>C51+cities!AH24</f>
+      <c r="D53" s="1">
+        <f>C53+cities!AH25</f>
         <v>3897000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
         <v>10</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B54" t="str">
         <f>cities!AK1</f>
         <v>Dera Ismail Khan</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C54" s="1">
         <f>cities!AL3</f>
         <v>2119000</v>
       </c>
-      <c r="D52" s="1">
-        <f>C52+cities!AL24</f>
+      <c r="D54" s="1">
+        <f>C54+cities!AL25</f>
         <v>2610000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
         <v>11</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B55" t="str">
         <f>cities!AO1</f>
         <v>Gujranwala</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C55" s="12">
         <f>cities!AP3</f>
         <v>2008000</v>
       </c>
-      <c r="D53" s="9">
-        <f>C53+cities!AP24</f>
+      <c r="D55" s="9">
+        <f>C55+cities!AP25</f>
         <v>2413000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
         <v>12</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B56" t="str">
         <f>cities!AS1</f>
         <v>Kaulabad</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C56" s="1">
         <f>cities!AT3</f>
         <v>1808000</v>
       </c>
-      <c r="D54" s="1">
-        <f>C54+cities!AT24</f>
+      <c r="D56" s="1">
+        <f>C56+cities!AT25</f>
         <v>2476000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
         <v>13</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B57" t="str">
         <f>cities!AW1</f>
         <v>Hyderabad</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C57" s="1">
         <f>cities!AX3</f>
         <v>1558000</v>
       </c>
-      <c r="D55" s="1">
-        <f>cities!AX3+cities!AX24</f>
+      <c r="D57" s="1">
+        <f>cities!AX3+cities!AX25</f>
         <v>1783000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
         <v>14</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B58" t="str">
         <f>cities!BA1</f>
         <v>Quetta</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C58" s="1">
         <f>cities!BB3</f>
         <v>1301000</v>
       </c>
-      <c r="D56" s="1">
-        <f>C56+cities!BB24</f>
+      <c r="D58" s="1">
+        <f>C58+cities!BB25</f>
         <v>1392000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
         <v>15</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B59" t="str">
         <f>cities!BE1</f>
         <v>Kangra</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C59" s="1">
         <f>cities!BF3</f>
         <v>1021000</v>
       </c>
-      <c r="D57" s="1">
-        <f>C57+cities!BF24</f>
+      <c r="D59" s="1">
+        <f>C59+cities!BF25</f>
         <v>1201000</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/punjabi-republic.xlsx
+++ b/obsidian-notes/spreadsheets/punjabi-republic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBCD8E2-F8F1-49BA-93D1-8C4204B7B10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD8663-BDFB-4058-8037-7B8EDFA5D07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{2A2A8F50-B36A-4748-86B9-6BCF6AA3C6D6}"/>
   </bookViews>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6FBEDB-1E91-442D-B0F9-25114CF93708}">
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -969,10 +969,10 @@
       </c>
       <c r="B6" s="4">
         <f>$B$3*C6</f>
-        <v>11804700</v>
+        <v>11739300</v>
       </c>
       <c r="C6" s="3">
-        <v>0.36099999999999999</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -989,80 +989,80 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" ref="J6:J12" si="1">J$3*K6</f>
-        <v>2455200</v>
+        <v>2318400</v>
       </c>
       <c r="K6" s="3">
-        <v>0.34100000000000003</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ref="N6:N11" si="2">N$3*O6</f>
-        <v>1488584</v>
+        <v>1398062.0000000002</v>
       </c>
       <c r="O6" s="3">
-        <v>0.29599999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="Q6" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="4">
         <f>R$3*S6</f>
-        <v>3066486</v>
+        <v>2918856</v>
       </c>
       <c r="S6" s="3">
-        <v>0.72699999999999998</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="U6" t="s">
         <v>1</v>
       </c>
       <c r="V6" s="4">
         <f>V$3*W6</f>
-        <v>582313</v>
+        <v>563768</v>
       </c>
       <c r="W6" s="3">
-        <v>0.157</v>
+        <v>0.152</v>
       </c>
       <c r="Y6" t="s">
         <v>1</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$3*AA6</f>
-        <v>2483535.6</v>
+        <v>2429670.6</v>
       </c>
       <c r="AA6" s="3">
-        <v>0.69159999999999999</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="AC6" t="s">
         <v>1</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$3*AE6</f>
-        <v>1571360</v>
+        <v>1532720</v>
       </c>
       <c r="AE6" s="3">
-        <v>0.48799999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AG6" t="s">
         <v>1</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$3*AI6</f>
-        <v>836690</v>
+        <v>801603</v>
       </c>
       <c r="AI6" s="3">
-        <v>0.31</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="AK6" t="s">
         <v>1</v>
       </c>
       <c r="AL6" s="4">
         <f>AL$3*AM6</f>
-        <v>1540513</v>
+        <v>1485419</v>
       </c>
       <c r="AM6" s="3">
-        <v>0.72699999999999998</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" t="s">
@@ -1070,40 +1070,40 @@
       </c>
       <c r="AP6" s="4">
         <f>AP$3*AQ6</f>
-        <v>690752</v>
+        <v>662640</v>
       </c>
       <c r="AQ6" s="3">
-        <v>0.34399999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="AS6" t="s">
         <v>1</v>
       </c>
       <c r="AT6" s="4">
         <f>AT$3*AU6</f>
-        <v>379680</v>
+        <v>370640</v>
       </c>
       <c r="AU6" s="3">
-        <v>0.21</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="AW6" t="s">
         <v>1</v>
       </c>
       <c r="AX6" s="4">
         <f t="shared" ref="AX6:AX12" si="3">AX$3*AY6</f>
-        <v>526604</v>
+        <v>495444</v>
       </c>
       <c r="AY6" s="3">
-        <v>0.33800000000000002</v>
+        <v>0.318</v>
       </c>
       <c r="BA6" t="s">
         <v>1</v>
       </c>
       <c r="BB6" s="4">
         <f t="shared" ref="BB6:BB12" si="4">BB$3*BC6</f>
-        <v>1096743</v>
+        <v>1090238</v>
       </c>
       <c r="BC6" s="3">
-        <v>0.84299999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="BE6" t="s">
         <v>1</v>
@@ -1428,10 +1428,10 @@
       </c>
       <c r="B9" s="4">
         <f>$B$3*C9</f>
-        <v>817500</v>
+        <v>882900</v>
       </c>
       <c r="C9" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
@@ -1448,120 +1448,120 @@
       </c>
       <c r="J9" s="4">
         <f>J$3*K9</f>
-        <v>158400</v>
+        <v>295200</v>
       </c>
       <c r="K9" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
       </c>
       <c r="N9" s="4">
         <f>N$3*O9</f>
-        <v>62862.5</v>
+        <v>198645.5</v>
       </c>
       <c r="O9" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="4">
         <f>R$3*S9</f>
-        <v>139194</v>
+        <v>286824</v>
       </c>
       <c r="S9" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="U9" t="s">
         <v>85</v>
       </c>
       <c r="V9" s="4">
         <f>V$3*W9</f>
-        <v>370.90000000000003</v>
+        <v>7788.9</v>
       </c>
       <c r="W9" s="3">
-        <v>1E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="Y9" t="s">
         <v>85</v>
       </c>
       <c r="Z9" s="4">
         <f>Z$3*AA9</f>
-        <v>40578.299999999996</v>
+        <v>94443.3</v>
       </c>
       <c r="AA9" s="3">
-        <v>1.1299999999999999E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="AC9" t="s">
         <v>85</v>
       </c>
       <c r="AD9" s="4">
         <f>AD$3*AE9</f>
-        <v>55706</v>
+        <v>94346</v>
       </c>
       <c r="AE9" s="3">
-        <v>1.7299999999999999E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="AG9" t="s">
         <v>85</v>
       </c>
       <c r="AH9" s="4">
         <f>AH$3*AI9</f>
-        <v>12955.199999999999</v>
+        <v>48042.2</v>
       </c>
       <c r="AI9" s="3">
-        <v>4.7999999999999996E-3</v>
+        <v>1.78E-2</v>
       </c>
       <c r="AK9" t="s">
         <v>85</v>
       </c>
       <c r="AL9" s="4">
         <f>AL$3*AM9</f>
-        <v>26487.5</v>
+        <v>81581.5</v>
       </c>
       <c r="AM9" s="3">
-        <v>1.2500000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="AO9" t="s">
         <v>85</v>
       </c>
       <c r="AP9" s="4">
         <f>AP$3*AQ9</f>
-        <v>6024</v>
+        <v>34136</v>
       </c>
       <c r="AQ9" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AS9" t="s">
         <v>85</v>
       </c>
       <c r="AT9" s="4">
         <f>AT$3*AU9</f>
-        <v>19888</v>
+        <v>28928</v>
       </c>
       <c r="AU9" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AW9" t="s">
         <v>85</v>
       </c>
       <c r="AX9" s="4">
         <f>AX$3*AY9</f>
-        <v>2804.4</v>
+        <v>33964.400000000001</v>
       </c>
       <c r="AY9" s="3">
-        <v>1.8E-3</v>
+        <v>2.18E-2</v>
       </c>
       <c r="BA9" t="s">
         <v>85</v>
       </c>
       <c r="BB9" s="4">
         <f>BB$3*BC9</f>
-        <v>10928.4</v>
+        <v>17433.400000000001</v>
       </c>
       <c r="BC9" s="3">
-        <v>8.3999999999999995E-3</v>
+        <v>1.34E-2</v>
       </c>
       <c r="BE9" t="s">
         <v>85</v>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="N12" s="4">
         <f>N$3*O12</f>
-        <v>140812.00000000067</v>
+        <v>95551.000000000087</v>
       </c>
       <c r="O12" s="5">
         <f>1-SUM(O6:O11)</f>
-        <v>2.8000000000000136E-2</v>
+        <v>1.9000000000000017E-2</v>
       </c>
       <c r="Q12" t="s">
         <v>6</v>
@@ -1941,11 +1941,11 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="8"/>
-        <v>246277.60000000006</v>
+        <v>257404.60000000006</v>
       </c>
       <c r="W12" s="5">
         <f>1-SUM(W6:W11)</f>
-        <v>6.6400000000000015E-2</v>
+        <v>6.9400000000000017E-2</v>
       </c>
       <c r="Y12" t="s">
         <v>6</v>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="AH12" s="4">
         <f t="shared" si="11"/>
-        <v>105260.9999999998</v>
+        <v>105261.00000000009</v>
       </c>
       <c r="AI12" s="3">
         <f>1-SUM(AI6:AI11)</f>
-        <v>3.8999999999999924E-2</v>
+        <v>3.9000000000000035E-2</v>
       </c>
       <c r="AK12" t="s">
         <v>6</v>
@@ -3157,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3E62A3-3594-4358-A77B-AEC2DCECED91}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3201,10 +3201,10 @@
       </c>
       <c r="B6" s="4">
         <f>B$3*C6</f>
-        <v>56161827</v>
+        <v>55291101</v>
       </c>
       <c r="C6" s="5">
-        <v>0.38700000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3236,12 +3236,12 @@
         <v>85</v>
       </c>
       <c r="B9" s="4">
-        <f>M31+5500</f>
-        <v>1689709.4099999997</v>
+        <f>M31+110500</f>
+        <v>2545243.41</v>
       </c>
       <c r="C9" s="5">
         <f>B9/B$3</f>
-        <v>1.1643452084811982E-2</v>
+        <v>1.7538767028893131E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3275,11 +3275,11 @@
       </c>
       <c r="B12" s="4">
         <f>B$3*C12</f>
-        <v>6382780.0599999968</v>
+        <v>6397972.0599999996</v>
       </c>
       <c r="C12" s="5">
         <f>1-SUM(C6:C11)</f>
-        <v>4.3982470214510627E-2</v>
+        <v>4.4087155270429501E-2</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -3438,44 +3438,44 @@
       </c>
       <c r="E28" s="4">
         <f>cities!B6+cities!F6+cities!J6+cities!N6+cities!R6+cities!V6+cities!Z6+cities!AD6+cities!AH6+cities!AL6+cities!AP6+cities!AT6+cities!AX6+cities!BB6+cities!BF6</f>
-        <v>32800029.600000001</v>
+        <v>32083629.600000001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ref="F28:F34" si="2">E28/E$22</f>
-        <v>0.39196507689917665</v>
+        <v>0.38340399373812456</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="4">
         <f>E$23*J28</f>
-        <v>7193231.6917818859</v>
+        <v>7004887.8622387405</v>
       </c>
       <c r="J28" s="5">
         <f>F28-6.5%</f>
-        <v>0.32696507689917664</v>
+        <v>0.31840399373812456</v>
       </c>
       <c r="L28" t="s">
         <v>43</v>
       </c>
       <c r="M28" s="9">
         <f>E28+I28</f>
-        <v>39993261.291781887</v>
+        <v>39088517.462238744</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" ref="N28:N34" si="3">M28/E$24</f>
-        <v>0.37843378934512245</v>
+        <v>0.36987270618407042</v>
       </c>
       <c r="P28" t="s">
         <v>55</v>
       </c>
       <c r="Q28" s="9">
-        <f>B6-M28</f>
-        <v>16168565.708218113</v>
+        <f t="shared" ref="Q28:Q34" si="4">B6-M28</f>
+        <v>16202583.537761256</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" ref="R28:R34" si="4">Q28/E$25</f>
-        <v>0.40995349158768035</v>
+        <f t="shared" ref="R28:R34" si="5">Q28/E$25</f>
+        <v>0.41081601262072148</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3494,7 +3494,7 @@
         <v>33</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I28:I34" si="5">E$23*J29</f>
+        <f t="shared" ref="I29:I34" si="6">E$23*J29</f>
         <v>7173942.0657018917</v>
       </c>
       <c r="J29" s="5">
@@ -3505,7 +3505,7 @@
         <v>44</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" ref="M29:M42" si="6">E29+I29</f>
+        <f t="shared" ref="M29:M42" si="7">E29+I29</f>
         <v>33540844.065701891</v>
       </c>
       <c r="N29" s="5">
@@ -3516,11 +3516,11 @@
         <v>56</v>
       </c>
       <c r="Q29" s="9">
-        <f>B7-M29</f>
+        <f t="shared" si="4"/>
         <v>10430818.934298109</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2644730967114125</v>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
         <v>34</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6114239.4689356014</v>
       </c>
       <c r="J30" s="5">
@@ -3551,7 +3551,7 @@
         <v>45</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23680552.968935601</v>
       </c>
       <c r="N30" s="5">
@@ -3562,11 +3562,11 @@
         <v>57</v>
       </c>
       <c r="Q30" s="9">
-        <f>B8-M30</f>
+        <f t="shared" si="4"/>
         <v>12164334.031064399</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30842631924605474</v>
       </c>
     </row>
@@ -3576,11 +3576,11 @@
       </c>
       <c r="E31" s="4">
         <f>cities!B9+cities!F9+cities!J9+cities!N9+cities!R9+cities!V9+cities!Z9+cities!AD9+cities!AH9+cities!AL9+cities!AP9+cities!AT9+cities!AX9+cities!BB9+cities!BF9</f>
-        <v>1618209.4099999997</v>
+        <v>2368743.41</v>
       </c>
       <c r="F31" s="5">
         <f>E31/E$22</f>
-        <v>1.9337835470417414E-2</v>
+        <v>2.8306824846739406E-2</v>
       </c>
       <c r="H31" t="s">
         <v>87</v>
@@ -3598,22 +3598,22 @@
       </c>
       <c r="M31" s="9">
         <f>E31+I31</f>
-        <v>1684209.4099999997</v>
+        <v>2434743.41</v>
       </c>
       <c r="N31" s="5">
         <f>M31/E$24</f>
-        <v>1.5936728551016736E-2</v>
+        <v>2.3038610630103804E-2</v>
       </c>
       <c r="P31" t="s">
         <v>89</v>
       </c>
       <c r="Q31" s="9">
-        <f>B9-M31</f>
-        <v>5500</v>
+        <f t="shared" si="4"/>
+        <v>110500</v>
       </c>
       <c r="R31" s="5">
         <f>Q31/E$25</f>
-        <v>1.3945233265720081E-4</v>
+        <v>2.8017241379310344E-3</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3632,7 +3632,7 @@
         <v>35</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11000</v>
       </c>
       <c r="J32" s="3">
@@ -3643,7 +3643,7 @@
         <v>46</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>664033.53000000014</v>
       </c>
       <c r="N32" s="5">
@@ -3654,7 +3654,7 @@
         <v>58</v>
       </c>
       <c r="Q32" s="9">
-        <f>B10-M32</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="R32" s="5">
@@ -3678,18 +3678,18 @@
         <v>36</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36019.963432559358</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" ref="J33" si="7">F33</f>
+        <f t="shared" ref="J33" si="8">F33</f>
         <v>1.6372710651163345E-3</v>
       </c>
       <c r="L33" t="s">
         <v>47</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>173028.44343255935</v>
       </c>
       <c r="N33" s="5">
@@ -3700,11 +3700,11 @@
         <v>59</v>
       </c>
       <c r="Q33" s="9">
-        <f>B11-M33</f>
+        <f t="shared" si="4"/>
         <v>230071.55656744065</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8334573166186777E-3</v>
       </c>
     </row>
@@ -3714,44 +3714,44 @@
       </c>
       <c r="E34" s="4">
         <f>cities!B12+cities!F12+cities!J12+cities!N12+cities!R12+cities!V12+cities!Z12+cities!AD12+cities!AH12+cities!AL12+cities!AP12+cities!AT12+cities!AX12+cities!BB12+cities!BF12</f>
-        <v>4539503.4800000004</v>
+        <v>4505369.4800000004</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>5.4247720271029275E-2</v>
+        <v>5.3839814055759376E-2</v>
       </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="5"/>
-        <v>1405566.8101480622</v>
+        <f t="shared" si="6"/>
+        <v>1593910.6396912083</v>
       </c>
       <c r="J34" s="3">
         <f>1-SUM(J28:J33)</f>
-        <v>6.3889400461275558E-2</v>
+        <v>7.2450483622327644E-2</v>
       </c>
       <c r="L34" t="s">
         <v>48</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="6"/>
-        <v>5945070.2901480626</v>
+        <f t="shared" si="7"/>
+        <v>6099280.1196912089</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>5.625486407346697E-2</v>
+        <v>5.7714065155431996E-2</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
       </c>
       <c r="Q34" s="9">
-        <f>B12-M34</f>
-        <v>437709.76985193416</v>
+        <f t="shared" si="4"/>
+        <v>298691.94030879065</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1098117896854314E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.5733250585393172E-3</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3781,14 +3781,14 @@
         <v>60270071</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" ref="F37:F42" si="8">E37/E$22</f>
+        <f t="shared" ref="F37:F42" si="9">E37/E$22</f>
         <v>0.72023602729412894</v>
       </c>
       <c r="H37" t="s">
         <v>38</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37:I42" si="9">E$23*J37</f>
+        <f t="shared" ref="I37:I42" si="10">E$23*J37</f>
         <v>14305192.600470837</v>
       </c>
       <c r="J37" s="3">
@@ -3799,22 +3799,22 @@
         <v>49</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74575263.600470841</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" ref="N37:N42" si="10">M37/E$24</f>
+        <f t="shared" ref="N37:N42" si="11">M37/E$24</f>
         <v>0.70566387146668597</v>
       </c>
       <c r="P37" t="s">
         <v>61</v>
       </c>
       <c r="Q37" s="9">
-        <f>B15-M37</f>
+        <f t="shared" ref="Q37:Q42" si="12">B15-M37</f>
         <v>21639959.399529159</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" ref="R37:R42" si="11">Q37/E$25</f>
+        <f t="shared" ref="R37:R42" si="13">Q37/E$25</f>
         <v>0.54868051215844726</v>
       </c>
     </row>
@@ -3827,14 +3827,14 @@
         <v>7887374</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.4255255075823663E-2</v>
       </c>
       <c r="H38" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2293615.6116681206</v>
       </c>
       <c r="J38" s="3">
@@ -3845,22 +3845,22 @@
         <v>51</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10180989.611668121</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.6336991622601231E-2</v>
       </c>
       <c r="P38" t="s">
         <v>62</v>
       </c>
       <c r="Q38" s="9">
-        <f>B16-M38</f>
+        <f t="shared" si="12"/>
         <v>8249377.3883318789</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.20916271268589956</v>
       </c>
     </row>
@@ -3873,14 +3873,14 @@
         <v>4572195.8</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4638398202698342E-2</v>
       </c>
       <c r="H39" t="s">
         <v>40</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1422044.7604593635</v>
       </c>
       <c r="J39" s="3">
@@ -3891,22 +3891,22 @@
         <v>50</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5994240.5604593633</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6720134749475903E-2</v>
       </c>
       <c r="P39" t="s">
         <v>63</v>
       </c>
       <c r="Q39" s="9">
-        <f>B17-M39</f>
+        <f t="shared" si="12"/>
         <v>3148382.4395406367</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.9827140961983692E-2</v>
       </c>
     </row>
@@ -3919,14 +3919,14 @@
         <v>6715995.8000000007</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0257116908258749E-2</v>
       </c>
       <c r="H40" t="s">
         <v>41</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2755656.5719816922</v>
       </c>
       <c r="J40" s="3">
@@ -3937,22 +3937,22 @@
         <v>52</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9471652.3719816934</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.9624931368757807E-2</v>
       </c>
       <c r="P40" t="s">
         <v>64</v>
       </c>
       <c r="Q40" s="9">
-        <f>B18-M40</f>
+        <f t="shared" si="12"/>
         <v>5620931.6280183066</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14251855040614367</v>
       </c>
     </row>
@@ -3965,14 +3965,14 @@
         <v>1256969</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5020960552574658E-2</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>440461.13215664244</v>
       </c>
       <c r="J41" s="3">
@@ -3983,22 +3983,22 @@
         <v>53</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1697430.1321566424</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.606182882596344E-2</v>
       </c>
       <c r="P41" t="s">
         <v>65</v>
       </c>
       <c r="Q41" s="9">
-        <f>B19-M41</f>
+        <f t="shared" si="12"/>
         <v>189142.86784335761</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.7957116593143412E-3</v>
       </c>
     </row>
@@ -4011,14 +4011,14 @@
         <v>2978394.3999999957</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5592241966515642E-2</v>
       </c>
       <c r="H42" t="s">
         <v>37</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>783029.3232633447</v>
       </c>
       <c r="J42" s="3">
@@ -4029,22 +4029,22 @@
         <v>48</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3761423.7232633405</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.5592241966515649E-2</v>
       </c>
       <c r="P42" t="s">
         <v>60</v>
       </c>
       <c r="Q42" s="9">
-        <f>B20-M42</f>
+        <f t="shared" si="12"/>
         <v>592206.27673666319</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5015372128211541E-2</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/punjabi-republic.xlsx
+++ b/obsidian-notes/spreadsheets/punjabi-republic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD8663-BDFB-4058-8037-7B8EDFA5D07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AAB0D5-EDF1-44C3-88F8-21277C4D6D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{2A2A8F50-B36A-4748-86B9-6BCF6AA3C6D6}"/>
   </bookViews>
@@ -708,7 +708,7 @@
   <dimension ref="A1:BG25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -969,100 +969,100 @@
       </c>
       <c r="B6" s="4">
         <f>$B$3*C6</f>
-        <v>11739300</v>
+        <v>11052600</v>
       </c>
       <c r="C6" s="3">
-        <v>0.35899999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F12" si="0">F$3*G6</f>
-        <v>4186000</v>
+        <v>3955999.9999999995</v>
       </c>
       <c r="G6" s="3">
-        <v>0.36399999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ref="J6:J12" si="1">J$3*K6</f>
-        <v>2318400</v>
+        <v>2224800</v>
       </c>
       <c r="K6" s="3">
-        <v>0.32200000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ref="N6:N11" si="2">N$3*O6</f>
-        <v>1398062.0000000002</v>
+        <v>1372917</v>
       </c>
       <c r="O6" s="3">
-        <v>0.27800000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="Q6" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="4">
         <f>R$3*S6</f>
-        <v>2918856</v>
+        <v>2838714</v>
       </c>
       <c r="S6" s="3">
-        <v>0.69199999999999995</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="U6" t="s">
         <v>1</v>
       </c>
       <c r="V6" s="4">
         <f>V$3*W6</f>
-        <v>563768</v>
+        <v>552641</v>
       </c>
       <c r="W6" s="3">
-        <v>0.152</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="Y6" t="s">
         <v>1</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$3*AA6</f>
-        <v>2429670.6</v>
+        <v>2375805.6</v>
       </c>
       <c r="AA6" s="3">
-        <v>0.67659999999999998</v>
+        <v>0.66159999999999997</v>
       </c>
       <c r="AC6" t="s">
         <v>1</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$3*AE6</f>
-        <v>1532720</v>
+        <v>1429680</v>
       </c>
       <c r="AE6" s="3">
-        <v>0.47599999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="AG6" t="s">
         <v>1</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$3*AI6</f>
-        <v>801603</v>
+        <v>788108</v>
       </c>
       <c r="AI6" s="3">
-        <v>0.29699999999999999</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="AK6" t="s">
         <v>1</v>
       </c>
       <c r="AL6" s="4">
         <f>AL$3*AM6</f>
-        <v>1485419</v>
+        <v>1447277</v>
       </c>
       <c r="AM6" s="3">
-        <v>0.70099999999999996</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" t="s">
@@ -1070,50 +1070,50 @@
       </c>
       <c r="AP6" s="4">
         <f>AP$3*AQ6</f>
-        <v>662640</v>
+        <v>616456</v>
       </c>
       <c r="AQ6" s="3">
-        <v>0.33</v>
+        <v>0.307</v>
       </c>
       <c r="AS6" t="s">
         <v>1</v>
       </c>
       <c r="AT6" s="4">
         <f>AT$3*AU6</f>
-        <v>370640</v>
+        <v>352560</v>
       </c>
       <c r="AU6" s="3">
-        <v>0.20499999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AW6" t="s">
         <v>1</v>
       </c>
       <c r="AX6" s="4">
         <f t="shared" ref="AX6:AX12" si="3">AX$3*AY6</f>
-        <v>495444</v>
+        <v>479864</v>
       </c>
       <c r="AY6" s="3">
-        <v>0.318</v>
+        <v>0.308</v>
       </c>
       <c r="BA6" t="s">
         <v>1</v>
       </c>
       <c r="BB6" s="4">
         <f t="shared" ref="BB6:BB12" si="4">BB$3*BC6</f>
-        <v>1090238</v>
+        <v>1077228</v>
       </c>
       <c r="BC6" s="3">
-        <v>0.83799999999999997</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="BE6" t="s">
         <v>1</v>
       </c>
       <c r="BF6" s="4">
         <f t="shared" ref="BF6:BF12" si="5">BF$3*BG6</f>
-        <v>90869</v>
+        <v>89848</v>
       </c>
       <c r="BG6" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -1428,150 +1428,150 @@
       </c>
       <c r="B9" s="4">
         <f>$B$3*C9</f>
-        <v>882900</v>
+        <v>1569600</v>
       </c>
       <c r="C9" s="3">
-        <v>2.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="4">
         <f>F$3*G9</f>
-        <v>264500</v>
+        <v>494499.99999999994</v>
       </c>
       <c r="G9" s="3">
-        <v>2.3E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I9" t="s">
         <v>85</v>
       </c>
       <c r="J9" s="4">
         <f>J$3*K9</f>
-        <v>295200</v>
+        <v>388800</v>
       </c>
       <c r="K9" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
       </c>
       <c r="N9" s="4">
         <f>N$3*O9</f>
-        <v>198645.5</v>
+        <v>223790.5</v>
       </c>
       <c r="O9" s="3">
-        <v>3.95E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>85</v>
       </c>
       <c r="R9" s="4">
         <f>R$3*S9</f>
-        <v>286824</v>
+        <v>366966</v>
       </c>
       <c r="S9" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="U9" t="s">
         <v>85</v>
       </c>
       <c r="V9" s="4">
         <f>V$3*W9</f>
-        <v>7788.9</v>
+        <v>18915.900000000001</v>
       </c>
       <c r="W9" s="3">
-        <v>2.0999999999999999E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="Y9" t="s">
         <v>85</v>
       </c>
       <c r="Z9" s="4">
         <f>Z$3*AA9</f>
-        <v>94443.3</v>
+        <v>148308.30000000002</v>
       </c>
       <c r="AA9" s="3">
-        <v>2.63E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="AC9" t="s">
         <v>85</v>
       </c>
       <c r="AD9" s="4">
         <f>AD$3*AE9</f>
-        <v>94346</v>
+        <v>197386</v>
       </c>
       <c r="AE9" s="3">
-        <v>2.93E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="AG9" t="s">
         <v>85</v>
       </c>
       <c r="AH9" s="4">
         <f>AH$3*AI9</f>
-        <v>48042.2</v>
+        <v>61537.200000000004</v>
       </c>
       <c r="AI9" s="3">
-        <v>1.78E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="AK9" t="s">
         <v>85</v>
       </c>
       <c r="AL9" s="4">
         <f>AL$3*AM9</f>
-        <v>81581.5</v>
+        <v>119723.5</v>
       </c>
       <c r="AM9" s="3">
-        <v>3.85E-2</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="AO9" t="s">
         <v>85</v>
       </c>
       <c r="AP9" s="4">
         <f>AP$3*AQ9</f>
-        <v>34136</v>
+        <v>80320</v>
       </c>
       <c r="AQ9" s="3">
-        <v>1.7000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AS9" t="s">
         <v>85</v>
       </c>
       <c r="AT9" s="4">
         <f>AT$3*AU9</f>
-        <v>28928</v>
+        <v>47008</v>
       </c>
       <c r="AU9" s="3">
-        <v>1.6E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AW9" t="s">
         <v>85</v>
       </c>
       <c r="AX9" s="4">
         <f>AX$3*AY9</f>
-        <v>33964.400000000001</v>
+        <v>49544.4</v>
       </c>
       <c r="AY9" s="3">
-        <v>2.18E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="BA9" t="s">
         <v>85</v>
       </c>
       <c r="BB9" s="4">
         <f>BB$3*BC9</f>
-        <v>17433.400000000001</v>
+        <v>30443.4</v>
       </c>
       <c r="BC9" s="3">
-        <v>1.34E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="BE9" t="s">
         <v>85</v>
       </c>
       <c r="BF9" s="4">
         <f>BF$3*BG9</f>
-        <v>10.210000000000001</v>
+        <v>1021</v>
       </c>
       <c r="BG9" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -1886,11 +1886,11 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" si="6"/>
-        <v>2452499.9999999986</v>
+        <v>2452499.9999999949</v>
       </c>
       <c r="C12" s="3">
         <f>1-SUM(C6:C11)</f>
-        <v>7.4999999999999956E-2</v>
+        <v>7.4999999999999845E-2</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="AH12" s="4">
         <f t="shared" si="11"/>
-        <v>105261.00000000009</v>
+        <v>105260.9999999998</v>
       </c>
       <c r="AI12" s="3">
         <f>1-SUM(AI6:AI11)</f>
-        <v>3.9000000000000035E-2</v>
+        <v>3.8999999999999924E-2</v>
       </c>
       <c r="AK12" t="s">
         <v>6</v>
@@ -1997,22 +1997,22 @@
       </c>
       <c r="AP12" s="4">
         <f t="shared" si="13"/>
-        <v>37931.120000000148</v>
+        <v>37931.119999999923</v>
       </c>
       <c r="AQ12" s="3">
         <f>1-SUM(AQ6:AQ11)</f>
-        <v>1.8890000000000073E-2</v>
+        <v>1.8889999999999962E-2</v>
       </c>
       <c r="AS12" t="s">
         <v>6</v>
       </c>
       <c r="AT12" s="4">
         <f t="shared" si="14"/>
-        <v>51961.919999999976</v>
+        <v>51961.91999999978</v>
       </c>
       <c r="AU12" s="5">
         <f>1-SUM(AU6:AU11)</f>
-        <v>2.8739999999999988E-2</v>
+        <v>2.8739999999999877E-2</v>
       </c>
       <c r="AW12" t="s">
         <v>6</v>
@@ -2041,11 +2041,11 @@
       </c>
       <c r="BF12" s="4">
         <f t="shared" si="5"/>
-        <v>19848.240000000013</v>
+        <v>19858.449999999968</v>
       </c>
       <c r="BG12" s="5">
         <f>1-SUM(BG6:BG11)</f>
-        <v>1.9440000000000013E-2</v>
+        <v>1.9449999999999967E-2</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -3158,7 +3158,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3201,10 +3201,10 @@
       </c>
       <c r="B6" s="4">
         <f>B$3*C6</f>
-        <v>55291101</v>
+        <v>53694770</v>
       </c>
       <c r="C6" s="5">
-        <v>0.38100000000000001</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3236,12 +3236,12 @@
         <v>85</v>
       </c>
       <c r="B9" s="4">
-        <f>M31+110500</f>
-        <v>2545243.41</v>
+        <f>M31+150500</f>
+        <v>4014364.1999999997</v>
       </c>
       <c r="C9" s="5">
         <f>B9/B$3</f>
-        <v>1.7538767028893131E-2</v>
+        <v>2.7662186726938209E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3275,11 +3275,11 @@
       </c>
       <c r="B12" s="4">
         <f>B$3*C12</f>
-        <v>6397972.0599999996</v>
+        <v>6525182.2699999837</v>
       </c>
       <c r="C12" s="5">
         <f>1-SUM(C6:C11)</f>
-        <v>4.4087155270429501E-2</v>
+        <v>4.4963735572384311E-2</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -3438,44 +3438,44 @@
       </c>
       <c r="E28" s="4">
         <f>cities!B6+cities!F6+cities!J6+cities!N6+cities!R6+cities!V6+cities!Z6+cities!AD6+cities!AH6+cities!AL6+cities!AP6+cities!AT6+cities!AX6+cities!BB6+cities!BF6</f>
-        <v>32083629.600000001</v>
+        <v>30654498.600000001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ref="F28:F34" si="2">E28/E$22</f>
-        <v>0.38340399373812456</v>
+        <v>0.36632567249435355</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="4">
         <f>E$23*J28</f>
-        <v>7004887.8622387405</v>
+        <v>6629164.7948757783</v>
       </c>
       <c r="J28" s="5">
         <f>F28-6.5%</f>
-        <v>0.31840399373812456</v>
+        <v>0.30132567249435355</v>
       </c>
       <c r="L28" t="s">
         <v>43</v>
       </c>
       <c r="M28" s="9">
         <f>E28+I28</f>
-        <v>39088517.462238744</v>
+        <v>37283663.39487578</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" ref="N28:N34" si="3">M28/E$24</f>
-        <v>0.36987270618407042</v>
+        <v>0.35279438494029941</v>
       </c>
       <c r="P28" t="s">
         <v>55</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q34" si="4">B6-M28</f>
-        <v>16202583.537761256</v>
+        <v>16411106.60512422</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" ref="R28:R34" si="5">Q28/E$25</f>
-        <v>0.41081601262072148</v>
+        <v>0.4161031086491942</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3576,11 +3576,11 @@
       </c>
       <c r="E31" s="4">
         <f>cities!B9+cities!F9+cities!J9+cities!N9+cities!R9+cities!V9+cities!Z9+cities!AD9+cities!AH9+cities!AL9+cities!AP9+cities!AT9+cities!AX9+cities!BB9+cities!BF9</f>
-        <v>2368743.41</v>
+        <v>3797864.1999999997</v>
       </c>
       <c r="F31" s="5">
         <f>E31/E$22</f>
-        <v>2.8306824846739406E-2</v>
+        <v>4.5385024079540155E-2</v>
       </c>
       <c r="H31" t="s">
         <v>87</v>
@@ -3598,22 +3598,22 @@
       </c>
       <c r="M31" s="9">
         <f>E31+I31</f>
-        <v>2434743.41</v>
+        <v>3863864.1999999997</v>
       </c>
       <c r="N31" s="5">
         <f>M31/E$24</f>
-        <v>2.3038610630103804E-2</v>
+        <v>3.6561578713297564E-2</v>
       </c>
       <c r="P31" t="s">
         <v>89</v>
       </c>
       <c r="Q31" s="9">
         <f t="shared" si="4"/>
-        <v>110500</v>
+        <v>150500</v>
       </c>
       <c r="R31" s="5">
         <f>Q31/E$25</f>
-        <v>2.8017241379310344E-3</v>
+        <v>3.8159229208924949E-3</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3714,44 +3714,44 @@
       </c>
       <c r="E34" s="4">
         <f>cities!B12+cities!F12+cities!J12+cities!N12+cities!R12+cities!V12+cities!Z12+cities!AD12+cities!AH12+cities!AL12+cities!AP12+cities!AT12+cities!AX12+cities!BB12+cities!BF12</f>
-        <v>4505369.4800000004</v>
+        <v>4505379.6899999967</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>5.3839814055759376E-2</v>
+        <v>5.3839936066729564E-2</v>
       </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="6"/>
-        <v>1593910.6396912083</v>
+        <v>1969633.7070541717</v>
       </c>
       <c r="J34" s="3">
         <f>1-SUM(J28:J33)</f>
-        <v>7.2450483622327644E-2</v>
+        <v>8.952880486609871E-2</v>
       </c>
       <c r="L34" t="s">
         <v>48</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="7"/>
-        <v>6099280.1196912089</v>
+        <v>6475013.3970541684</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>5.7714065155431996E-2</v>
+        <v>6.1269418316009204E-2</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="4"/>
-        <v>298691.94030879065</v>
+        <v>50168.872945815325</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="5"/>
-        <v>7.5733250585393172E-3</v>
+        <v>1.2720302471048511E-3</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/punjabi-republic.xlsx
+++ b/obsidian-notes/spreadsheets/punjabi-republic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AAB0D5-EDF1-44C3-88F8-21277C4D6D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A32C9E1-2E7A-4C46-8DAF-B6BE701D4760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{2A2A8F50-B36A-4748-86B9-6BCF6AA3C6D6}"/>
   </bookViews>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6FBEDB-1E91-442D-B0F9-25114CF93708}">
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -969,40 +969,40 @@
       </c>
       <c r="B6" s="4">
         <f>$B$3*C6</f>
-        <v>11052600</v>
+        <v>10889100</v>
       </c>
       <c r="C6" s="3">
-        <v>0.33800000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F12" si="0">F$3*G6</f>
-        <v>3955999.9999999995</v>
+        <v>3829500</v>
       </c>
       <c r="G6" s="3">
-        <v>0.34399999999999997</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ref="J6:J12" si="1">J$3*K6</f>
-        <v>2224800</v>
+        <v>2116800</v>
       </c>
       <c r="K6" s="3">
-        <v>0.309</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ref="N6:N11" si="2">N$3*O6</f>
-        <v>1372917</v>
+        <v>1362859</v>
       </c>
       <c r="O6" s="3">
-        <v>0.27300000000000002</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="Q6" t="s">
         <v>1</v>
@@ -1019,50 +1019,50 @@
       </c>
       <c r="V6" s="4">
         <f>V$3*W6</f>
-        <v>552641</v>
+        <v>515551.00000000006</v>
       </c>
       <c r="W6" s="3">
-        <v>0.14899999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="Y6" t="s">
         <v>1</v>
       </c>
       <c r="Z6" s="4">
         <f>Z$3*AA6</f>
-        <v>2375805.6</v>
+        <v>2289621.5999999996</v>
       </c>
       <c r="AA6" s="3">
-        <v>0.66159999999999997</v>
+        <v>0.63759999999999994</v>
       </c>
       <c r="AC6" t="s">
         <v>1</v>
       </c>
       <c r="AD6" s="4">
         <f>AD$3*AE6</f>
-        <v>1429680</v>
+        <v>1413580</v>
       </c>
       <c r="AE6" s="3">
-        <v>0.44400000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="AG6" t="s">
         <v>1</v>
       </c>
       <c r="AH6" s="4">
         <f>AH$3*AI6</f>
-        <v>788108</v>
+        <v>720633</v>
       </c>
       <c r="AI6" s="3">
-        <v>0.29199999999999998</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="AK6" t="s">
         <v>1</v>
       </c>
       <c r="AL6" s="4">
         <f>AL$3*AM6</f>
-        <v>1447277</v>
+        <v>1415492</v>
       </c>
       <c r="AM6" s="3">
-        <v>0.68300000000000005</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" t="s">
@@ -1070,10 +1070,10 @@
       </c>
       <c r="AP6" s="4">
         <f>AP$3*AQ6</f>
-        <v>616456</v>
+        <v>590352</v>
       </c>
       <c r="AQ6" s="3">
-        <v>0.307</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="AS6" t="s">
         <v>1</v>
@@ -1090,10 +1090,10 @@
       </c>
       <c r="AX6" s="4">
         <f t="shared" ref="AX6:AX12" si="3">AX$3*AY6</f>
-        <v>479864</v>
+        <v>456494</v>
       </c>
       <c r="AY6" s="3">
-        <v>0.308</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="BA6" t="s">
         <v>1</v>
@@ -1428,40 +1428,40 @@
       </c>
       <c r="B9" s="4">
         <f>$B$3*C9</f>
-        <v>1569600</v>
+        <v>1896600</v>
       </c>
       <c r="C9" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="4">
         <f>F$3*G9</f>
-        <v>494499.99999999994</v>
+        <v>678500</v>
       </c>
       <c r="G9" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I9" t="s">
         <v>85</v>
       </c>
       <c r="J9" s="4">
         <f>J$3*K9</f>
-        <v>388800</v>
+        <v>568800</v>
       </c>
       <c r="K9" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
       </c>
       <c r="N9" s="4">
         <f>N$3*O9</f>
-        <v>223790.5</v>
+        <v>233848.5</v>
       </c>
       <c r="O9" s="3">
-        <v>4.4499999999999998E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>85</v>
@@ -1478,60 +1478,60 @@
       </c>
       <c r="V9" s="4">
         <f>V$3*W9</f>
-        <v>18915.900000000001</v>
+        <v>56005.9</v>
       </c>
       <c r="W9" s="3">
-        <v>5.1000000000000004E-3</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="Y9" t="s">
         <v>85</v>
       </c>
       <c r="Z9" s="4">
         <f>Z$3*AA9</f>
-        <v>148308.30000000002</v>
+        <v>234492.3</v>
       </c>
       <c r="AA9" s="3">
-        <v>4.1300000000000003E-2</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="AC9" t="s">
         <v>85</v>
       </c>
       <c r="AD9" s="4">
         <f>AD$3*AE9</f>
-        <v>197386</v>
+        <v>213486</v>
       </c>
       <c r="AE9" s="3">
-        <v>6.13E-2</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="AG9" t="s">
         <v>85</v>
       </c>
       <c r="AH9" s="4">
         <f>AH$3*AI9</f>
-        <v>61537.200000000004</v>
+        <v>129012.20000000001</v>
       </c>
       <c r="AI9" s="3">
-        <v>2.2800000000000001E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="AK9" t="s">
         <v>85</v>
       </c>
       <c r="AL9" s="4">
         <f>AL$3*AM9</f>
-        <v>119723.5</v>
+        <v>151508.5</v>
       </c>
       <c r="AM9" s="3">
-        <v>5.6500000000000002E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="AO9" t="s">
         <v>85</v>
       </c>
       <c r="AP9" s="4">
         <f>AP$3*AQ9</f>
-        <v>80320</v>
+        <v>106424</v>
       </c>
       <c r="AQ9" s="3">
-        <v>0.04</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AS9" t="s">
         <v>85</v>
@@ -1548,10 +1548,10 @@
       </c>
       <c r="AX9" s="4">
         <f>AX$3*AY9</f>
-        <v>49544.4</v>
+        <v>72914.400000000009</v>
       </c>
       <c r="AY9" s="3">
-        <v>3.1800000000000002E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="BA9" t="s">
         <v>85</v>
@@ -1886,33 +1886,33 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" si="6"/>
-        <v>2452499.9999999949</v>
+        <v>2288999.9999999986</v>
       </c>
       <c r="C12" s="3">
         <f>1-SUM(C6:C11)</f>
-        <v>7.4999999999999845E-2</v>
+        <v>6.9999999999999951E-2</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="0"/>
-        <v>741750.00000000128</v>
+        <v>684250.00000000128</v>
       </c>
       <c r="G12" s="5">
         <f>1-SUM(G6:G11)</f>
-        <v>6.4500000000000113E-2</v>
+        <v>5.9500000000000108E-2</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>348479.99999999919</v>
+        <v>276479.99999999994</v>
       </c>
       <c r="K12" s="5">
         <f>1-SUM(K6:K11)</f>
-        <v>4.8399999999999888E-2</v>
+        <v>3.839999999999999E-2</v>
       </c>
       <c r="M12" t="s">
         <v>6</v>
@@ -1963,11 +1963,11 @@
       </c>
       <c r="AD12" s="4">
         <f t="shared" si="10"/>
-        <v>106582.00000000042</v>
+        <v>106582.00000000006</v>
       </c>
       <c r="AE12" s="3">
         <f>1-SUM(AE6:AE11)</f>
-        <v>3.3100000000000129E-2</v>
+        <v>3.3100000000000018E-2</v>
       </c>
       <c r="AG12" t="s">
         <v>6</v>
@@ -1985,11 +1985,11 @@
       </c>
       <c r="AL12" s="4">
         <f t="shared" si="12"/>
-        <v>83912.400000000169</v>
+        <v>83912.399999999936</v>
       </c>
       <c r="AM12" s="3">
         <f>1-SUM(AM6:AM11)</f>
-        <v>3.960000000000008E-2</v>
+        <v>3.9599999999999969E-2</v>
       </c>
       <c r="AN12" s="3"/>
       <c r="AO12" t="s">
@@ -1997,11 +1997,11 @@
       </c>
       <c r="AP12" s="4">
         <f t="shared" si="13"/>
-        <v>37931.119999999923</v>
+        <v>37931.120000000148</v>
       </c>
       <c r="AQ12" s="3">
         <f>1-SUM(AQ6:AQ11)</f>
-        <v>1.8889999999999962E-2</v>
+        <v>1.8890000000000073E-2</v>
       </c>
       <c r="AS12" t="s">
         <v>6</v>
@@ -2019,11 +2019,11 @@
       </c>
       <c r="AX12" s="4">
         <f t="shared" si="3"/>
-        <v>53283.599999999838</v>
+        <v>53283.600000000188</v>
       </c>
       <c r="AY12" s="5">
         <f>1-SUM(AY6:AY11)</f>
-        <v>3.4199999999999897E-2</v>
+        <v>3.4200000000000119E-2</v>
       </c>
       <c r="BA12" t="s">
         <v>6</v>
@@ -3158,7 +3158,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3201,10 +3201,10 @@
       </c>
       <c r="B6" s="4">
         <f>B$3*C6</f>
-        <v>53694770</v>
+        <v>52824044</v>
       </c>
       <c r="C6" s="5">
-        <v>0.37</v>
+        <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3237,11 +3237,11 @@
       </c>
       <c r="B9" s="4">
         <f>M31+150500</f>
-        <v>4014364.1999999997</v>
+        <v>5003530.2</v>
       </c>
       <c r="C9" s="5">
         <f>B9/B$3</f>
-        <v>2.7662186726938209E-2</v>
+        <v>3.4478333252940647E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -3275,11 +3275,11 @@
       </c>
       <c r="B12" s="4">
         <f>B$3*C12</f>
-        <v>6525182.2699999837</v>
+        <v>6406742.2699999772</v>
       </c>
       <c r="C12" s="5">
         <f>1-SUM(C6:C11)</f>
-        <v>4.4963735572384311E-2</v>
+        <v>4.414758904638183E-2</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -3438,44 +3438,44 @@
       </c>
       <c r="E28" s="4">
         <f>cities!B6+cities!F6+cities!J6+cities!N6+cities!R6+cities!V6+cities!Z6+cities!AD6+cities!AH6+cities!AL6+cities!AP6+cities!AT6+cities!AX6+cities!BB6+cities!BF6</f>
-        <v>30654498.600000001</v>
+        <v>29958332.600000001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ref="F28:F34" si="2">E28/E$22</f>
-        <v>0.36632567249435355</v>
+        <v>0.35800638854698202</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="4">
         <f>E$23*J28</f>
-        <v>6629164.7948757783</v>
+        <v>6446140.5480336044</v>
       </c>
       <c r="J28" s="5">
         <f>F28-6.5%</f>
-        <v>0.30132567249435355</v>
+        <v>0.29300638854698202</v>
       </c>
       <c r="L28" t="s">
         <v>43</v>
       </c>
       <c r="M28" s="9">
         <f>E28+I28</f>
-        <v>37283663.39487578</v>
+        <v>36404473.148033604</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" ref="N28:N34" si="3">M28/E$24</f>
-        <v>0.35279438494029941</v>
+        <v>0.34447510099292783</v>
       </c>
       <c r="P28" t="s">
         <v>55</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" ref="Q28:Q34" si="4">B6-M28</f>
-        <v>16411106.60512422</v>
+        <v>16419570.851966396</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" ref="R28:R34" si="5">Q28/E$25</f>
-        <v>0.4161031086491942</v>
+        <v>0.41631771937034473</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -3576,11 +3576,11 @@
       </c>
       <c r="E31" s="4">
         <f>cities!B9+cities!F9+cities!J9+cities!N9+cities!R9+cities!V9+cities!Z9+cities!AD9+cities!AH9+cities!AL9+cities!AP9+cities!AT9+cities!AX9+cities!BB9+cities!BF9</f>
-        <v>3797864.1999999997</v>
+        <v>4787030.2</v>
       </c>
       <c r="F31" s="5">
         <f>E31/E$22</f>
-        <v>4.5385024079540155E-2</v>
+        <v>5.7205700218687636E-2</v>
       </c>
       <c r="H31" t="s">
         <v>87</v>
@@ -3598,11 +3598,11 @@
       </c>
       <c r="M31" s="9">
         <f>E31+I31</f>
-        <v>3863864.1999999997</v>
+        <v>4853030.2</v>
       </c>
       <c r="N31" s="5">
         <f>M31/E$24</f>
-        <v>3.6561578713297564E-2</v>
+        <v>4.5921501499796562E-2</v>
       </c>
       <c r="P31" t="s">
         <v>89</v>
@@ -3714,44 +3714,44 @@
       </c>
       <c r="E34" s="4">
         <f>cities!B12+cities!F12+cities!J12+cities!N12+cities!R12+cities!V12+cities!Z12+cities!AD12+cities!AH12+cities!AL12+cities!AP12+cities!AT12+cities!AX12+cities!BB12+cities!BF12</f>
-        <v>4505379.6899999967</v>
+        <v>4212379.6900000004</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="2"/>
-        <v>5.3839936066729564E-2</v>
+        <v>5.0338543874953699E-2</v>
       </c>
       <c r="H34" t="s">
         <v>37</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="6"/>
-        <v>1969633.7070541717</v>
+        <v>2152657.9538963442</v>
       </c>
       <c r="J34" s="3">
         <f>1-SUM(J28:J33)</f>
-        <v>8.952880486609871E-2</v>
+        <v>9.784808881347018E-2</v>
       </c>
       <c r="L34" t="s">
         <v>48</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="7"/>
-        <v>6475013.3970541684</v>
+        <v>6365037.643896345</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>6.1269418316009204E-2</v>
+        <v>6.0228779476881794E-2</v>
       </c>
       <c r="P34" t="s">
         <v>60</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="4"/>
-        <v>50168.872945815325</v>
+        <v>41704.626103632152</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="5"/>
-        <v>1.2720302471048511E-3</v>
+        <v>1.0574195259541621E-3</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
